--- a/laporan.xlsx
+++ b/laporan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kasir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B09666-FBF6-4C20-8832-FADCE634B126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3447CC-DBF2-4DF0-9276-CAB982BF9B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C664331B-736D-4FFC-B4E4-28891A970B64}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="638">
   <si>
     <t>CS/63/250501/0001</t>
   </si>
@@ -340,6 +340,1617 @@
   </si>
   <si>
     <t>MAXIM</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0001</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 11:57</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 12:00</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0002</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 13:15</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 13:17</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0003</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 13:24</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 13:25</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0004</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 14:19</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 16:15</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0005</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 15:51</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 15:52</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0006</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 17:03</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 17:05</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0007</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 17:12</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 17:15</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0008</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 17:33</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 18:33</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0009</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 18:05</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 18:07</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0010</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 18:11</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 18:13</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0011</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 18:38</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0012</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 18:43</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 18:45</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0013</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 18:54</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 18:59</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0014</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 19:05</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0015</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 19:12</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 19:14</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0016</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 19:15</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 21:11</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0017</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 19:16</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 19:21</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0018</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 19:38</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 20:24</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0019</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 19:39</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 19:41</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0020</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 19:44</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 19:45</t>
+  </si>
+  <si>
+    <t>CS/63/250502/0021</t>
+  </si>
+  <si>
+    <t>02 Mei 2025, 21:10</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0001</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 12:18</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 13:28</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0002</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 13:56</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 13:57</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0003</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 14:09</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 15:35</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0004</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 14:55</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0005</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 15:20</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 15:21</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0006</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 15:23</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 22:12</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0007</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 15:40</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 15:41</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0008</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 17:31</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0009</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 17:00</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 18:01</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0010</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 17:50</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 18:19</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0011</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 18:16</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0012</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 18:24</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 18:25</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0013</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:05</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:08</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0014</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:10</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:11</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0015</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:12</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:13</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0016</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:15</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:17</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0017</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:18</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:21</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0018</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:36</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:37</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0019</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:38</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:40</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0020</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:41</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 21:29</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0021</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:47</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:49</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0022</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:50</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 19:51</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0023</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:01</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:06</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0024</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:08</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:09</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0025</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:11</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0026</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:12</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0027</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:14</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0028</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:15</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:16</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0029</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:18</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:20</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0030</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:21</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:24</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0031</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:27</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:29</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0032</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:35</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:36</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0033</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:38</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:39</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0034</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:40</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 21:47</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0035</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:42</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:45</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0036</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:46</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:49</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0037</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 20:57</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0038</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 21:15</t>
+  </si>
+  <si>
+    <t>CS/63/250503/0039</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 21:20</t>
+  </si>
+  <si>
+    <t>03 Mei 2025, 21:22</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 09:27</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 09:28</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0002</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 09:39</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 09:59</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0003</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 09:58</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:00</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0004</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:05</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:06</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0005</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:07</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0006</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:08</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:10</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0007</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:12</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:07</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0008</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:19</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:20</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0009</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:24</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:36</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0010</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:26</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0011</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:34</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:35</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0012</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:40</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:42</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0013</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:44</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0014</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:45</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0015</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:46</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:47</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0016</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:48</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0017</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:49</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:50</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0018</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:52</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:54</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0019</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:55</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:57</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0020</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 10:59</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0021</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:01</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:02</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0022</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:03</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0023</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:04</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0024</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:05</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:06</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0025</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:08</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0026</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:09</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0027</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:10</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:11</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0028</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:12</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0029</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:14</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0030</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:15</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:16</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0031</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:17</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0032</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:18</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0033</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:19</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0034</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:20</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:21</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0035</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:22</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:23</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0036</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:25</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0037</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:26</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0038</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:27</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:28</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0039</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:29</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0040</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:30</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0041</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:31</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:44</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0042</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:39</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:40</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0043</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:43</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0044</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0045</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:45</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0046</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:36</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0047</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:46</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:48</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0048</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:50</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0049</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:51</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0050</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:54</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:55</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0051</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:56</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0052</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:58</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 11:59</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0053</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:00</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0054</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:02</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:03</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0055</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:13</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:16</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0056</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0057</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:21</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:22</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0058</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:24</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0059</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:25</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:26</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0060</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:27</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:45</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0061</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:28</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:29</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0062</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:30</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:31</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0063</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:33</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0064</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:34</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:35</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0065</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:36</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0066</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:37</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:39</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0067</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:40</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:41</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0068</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:42</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0069</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0070</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:47</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:50</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0071</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:51</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0072</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:52</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:55</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0073</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:57</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0074</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 12:58</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:01</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0075</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0076</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:02</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:03</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0077</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:07</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0078</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:04</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0079</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:08</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:09</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0080</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:11</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:12</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0081</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:13</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0082</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:17</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:18</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0083</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:32</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:33</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0084</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:35</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0085</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:36</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:37</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0086</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:41</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:42</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0087</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:50</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0088</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 13:52</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:57</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0089</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:00</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0090</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:02</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:03</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0091</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:04</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0092</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:05</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:06</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0093</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:13</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:08</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0094</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:15</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0095</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:17</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:18</t>
+  </si>
+  <si>
+    <t>Bank Transfer, QRIS BRI</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0096</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:21</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:07</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0097</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:24</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0098</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:31</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:32</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0099</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:33</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0100</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:40</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:42</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0001</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0101</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:44</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:45</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0102</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:50</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:51</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0103</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:54</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0104</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:55</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:56</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0105</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:57</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:30</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0106</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 14:59</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:03</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0107</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:01</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:02</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0108</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:06</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0109</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:10</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:11</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0110</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:12</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:13</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0111</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:23</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:25</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0112</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:29</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0113</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 17:02</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0114</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:34</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:35</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0115</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:36</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0116</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:37</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:38</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0117</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:39</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0118</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:41</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:42</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0119</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:49</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:50</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0120</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:51</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:53</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0121</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:55</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 15:56</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0122</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:03</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:04</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0123</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:05</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0124</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:10</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0125</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:12</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:13</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0126</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:14</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0127</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:16</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0128</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:17</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0129</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:18</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:19</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0130</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:20</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0131</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:21</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0132</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:22</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0133</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:23</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:24</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0134</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:25</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:26</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0135</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:32</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0136</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0137</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:58</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 16:59</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0138</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0139</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 18:08</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 18:10</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0140</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 18:13</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 18:16</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0141</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 18:21</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 18:22</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0142</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 19:02</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 19:04</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0143</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 19:35</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 19:37</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0144</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 20:01</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 20:03</t>
+  </si>
+  <si>
+    <t>CS/63/250504/0145</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 20:59</t>
+  </si>
+  <si>
+    <t>04 Mei 2025, 21:20</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -347,7 +1958,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -378,10 +1989,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,17 +2326,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77660A0B-93F9-43A9-821D-52A7AEE2A312}">
-  <dimension ref="D2:N26"/>
+  <dimension ref="C2:N231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:N26"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="L202" sqref="L202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.28515625" customWidth="1"/>
   </cols>
@@ -750,21 +2360,21 @@
       <c r="I2" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>45778</v>
       </c>
       <c r="E3" t="s">
@@ -782,7 +2392,7 @@
       <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>56000</v>
       </c>
       <c r="K3" t="s">
@@ -792,7 +2402,7 @@
         <f>VLOOKUP(K3,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>56000</v>
       </c>
       <c r="N3">
@@ -800,7 +2410,7 @@
       </c>
     </row>
     <row r="4" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>45778</v>
       </c>
       <c r="E4" t="s">
@@ -818,7 +2428,7 @@
       <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>60000</v>
       </c>
       <c r="K4" t="s">
@@ -828,7 +2438,7 @@
         <f>VLOOKUP(K4,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>60000</v>
       </c>
       <c r="N4">
@@ -836,7 +2446,7 @@
       </c>
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>45778</v>
       </c>
       <c r="E5" t="s">
@@ -854,7 +2464,7 @@
       <c r="I5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>318000</v>
       </c>
       <c r="K5" t="s">
@@ -864,7 +2474,7 @@
         <f>VLOOKUP(K5,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>318000</v>
       </c>
       <c r="N5">
@@ -872,7 +2482,7 @@
       </c>
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>45778</v>
       </c>
       <c r="E6" t="s">
@@ -890,7 +2500,7 @@
       <c r="I6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>28000</v>
       </c>
       <c r="K6" t="s">
@@ -900,7 +2510,7 @@
         <f>VLOOKUP(K6,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>28000</v>
       </c>
       <c r="N6">
@@ -908,7 +2518,7 @@
       </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>45778</v>
       </c>
       <c r="E7" t="s">
@@ -926,7 +2536,7 @@
       <c r="I7" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>187000</v>
       </c>
       <c r="K7" t="s">
@@ -936,7 +2546,7 @@
         <f>VLOOKUP(K7,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>187000</v>
       </c>
       <c r="N7">
@@ -944,7 +2554,7 @@
       </c>
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>45778</v>
       </c>
       <c r="E8" t="s">
@@ -962,7 +2572,7 @@
       <c r="I8" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>106000</v>
       </c>
       <c r="K8" t="s">
@@ -972,7 +2582,7 @@
         <f>VLOOKUP(K8,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>106000</v>
       </c>
       <c r="N8">
@@ -980,7 +2590,7 @@
       </c>
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>45778</v>
       </c>
       <c r="E9" t="s">
@@ -998,7 +2608,7 @@
       <c r="I9" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>189000</v>
       </c>
       <c r="K9" t="s">
@@ -1008,7 +2618,7 @@
         <f>VLOOKUP(K9,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>189000</v>
       </c>
       <c r="N9">
@@ -1016,7 +2626,7 @@
       </c>
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>45778</v>
       </c>
       <c r="E10" t="s">
@@ -1034,7 +2644,7 @@
       <c r="I10" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>86500</v>
       </c>
       <c r="K10" t="s">
@@ -1044,7 +2654,7 @@
         <f>VLOOKUP(K10,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>86500</v>
       </c>
       <c r="N10">
@@ -1052,7 +2662,7 @@
       </c>
     </row>
     <row r="11" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>45778</v>
       </c>
       <c r="E11" t="s">
@@ -1070,7 +2680,7 @@
       <c r="I11" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>18000</v>
       </c>
       <c r="K11" t="s">
@@ -1080,7 +2690,7 @@
         <f>VLOOKUP(K11,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>18000</v>
       </c>
       <c r="N11">
@@ -1088,7 +2698,7 @@
       </c>
     </row>
     <row r="12" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>45778</v>
       </c>
       <c r="E12" t="s">
@@ -1106,7 +2716,7 @@
       <c r="I12" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>80000</v>
       </c>
       <c r="K12" t="s">
@@ -1116,7 +2726,7 @@
         <f>VLOOKUP(K12,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12">
         <v>80000</v>
       </c>
       <c r="N12">
@@ -1124,7 +2734,7 @@
       </c>
     </row>
     <row r="13" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>45778</v>
       </c>
       <c r="E13" t="s">
@@ -1142,7 +2752,7 @@
       <c r="I13" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>238500</v>
       </c>
       <c r="K13" t="s">
@@ -1152,7 +2762,7 @@
         <f>VLOOKUP(K13,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>238500</v>
       </c>
       <c r="N13">
@@ -1160,7 +2770,7 @@
       </c>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>45778</v>
       </c>
       <c r="E14" t="s">
@@ -1178,7 +2788,7 @@
       <c r="I14" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>50000</v>
       </c>
       <c r="K14" t="s">
@@ -1188,7 +2798,7 @@
         <f>VLOOKUP(K14,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
         <v>50000</v>
       </c>
       <c r="N14">
@@ -1196,7 +2806,7 @@
       </c>
     </row>
     <row r="15" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>45778</v>
       </c>
       <c r="E15" t="s">
@@ -1214,7 +2824,7 @@
       <c r="I15" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>44000</v>
       </c>
       <c r="K15" t="s">
@@ -1224,7 +2834,7 @@
         <f>VLOOKUP(K15,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
         <v>44000</v>
       </c>
       <c r="N15">
@@ -1232,7 +2842,7 @@
       </c>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>45778</v>
       </c>
       <c r="E16" t="s">
@@ -1250,7 +2860,7 @@
       <c r="I16" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>18000</v>
       </c>
       <c r="K16" t="s">
@@ -1260,7 +2870,7 @@
         <f>VLOOKUP(K16,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
         <v>18000</v>
       </c>
       <c r="N16">
@@ -1268,7 +2878,7 @@
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>45778</v>
       </c>
       <c r="E17" t="s">
@@ -1286,7 +2896,7 @@
       <c r="I17" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>160000</v>
       </c>
       <c r="K17" t="s">
@@ -1296,7 +2906,7 @@
         <f>VLOOKUP(K17,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
         <v>160000</v>
       </c>
       <c r="N17">
@@ -1304,7 +2914,7 @@
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>45778</v>
       </c>
       <c r="E18" t="s">
@@ -1322,7 +2932,7 @@
       <c r="I18" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>82000</v>
       </c>
       <c r="K18" t="s">
@@ -1332,7 +2942,7 @@
         <f>VLOOKUP(K18,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
         <v>82000</v>
       </c>
       <c r="N18">
@@ -1340,7 +2950,7 @@
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>45778</v>
       </c>
       <c r="E19" t="s">
@@ -1358,7 +2968,7 @@
       <c r="I19" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <v>182000</v>
       </c>
       <c r="K19" t="s">
@@ -1368,7 +2978,7 @@
         <f>VLOOKUP(K19,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
         <v>182000</v>
       </c>
       <c r="N19">
@@ -1376,7 +2986,7 @@
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>45778</v>
       </c>
       <c r="E20" t="s">
@@ -1394,7 +3004,7 @@
       <c r="I20" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20">
         <v>201000</v>
       </c>
       <c r="K20" t="s">
@@ -1404,7 +3014,7 @@
         <f>VLOOKUP(K20,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
         <v>201000</v>
       </c>
       <c r="N20">
@@ -1412,7 +3022,7 @@
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>45778</v>
       </c>
       <c r="E21" t="s">
@@ -1430,7 +3040,7 @@
       <c r="I21" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21">
         <v>44000</v>
       </c>
       <c r="K21" t="s">
@@ -1440,7 +3050,7 @@
         <f>VLOOKUP(K21,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
         <v>44000</v>
       </c>
       <c r="N21">
@@ -1448,7 +3058,7 @@
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>45778</v>
       </c>
       <c r="E22" t="s">
@@ -1466,7 +3076,7 @@
       <c r="I22" t="s">
         <v>68</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
         <v>79000</v>
       </c>
       <c r="K22" t="s">
@@ -1476,7 +3086,7 @@
         <f>VLOOKUP(K22,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22">
         <v>79000</v>
       </c>
       <c r="N22">
@@ -1484,7 +3094,7 @@
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>45778</v>
       </c>
       <c r="E23" t="s">
@@ -1502,7 +3112,7 @@
       <c r="I23" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <v>84000</v>
       </c>
       <c r="K23" t="s">
@@ -1512,7 +3122,7 @@
         <f>VLOOKUP(K23,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23">
         <v>84000</v>
       </c>
       <c r="N23">
@@ -1520,7 +3130,7 @@
       </c>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>45778</v>
       </c>
       <c r="E24" t="s">
@@ -1538,7 +3148,7 @@
       <c r="I24" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24">
         <v>44000</v>
       </c>
       <c r="K24" t="s">
@@ -1548,7 +3158,7 @@
         <f>VLOOKUP(K24,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24">
         <v>44000</v>
       </c>
       <c r="N24">
@@ -1556,7 +3166,7 @@
       </c>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>45778</v>
       </c>
       <c r="E25" t="s">
@@ -1574,7 +3184,7 @@
       <c r="I25" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25">
         <v>231000</v>
       </c>
       <c r="K25" t="s">
@@ -1584,7 +3194,7 @@
         <f>VLOOKUP(K25,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25">
         <v>231000</v>
       </c>
       <c r="N25">
@@ -1592,7 +3202,7 @@
       </c>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>45778</v>
       </c>
       <c r="E26" t="s">
@@ -1610,7 +3220,7 @@
       <c r="I26" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26">
         <v>70000</v>
       </c>
       <c r="K26" t="s">
@@ -1620,10 +3230,7394 @@
         <f>VLOOKUP(K26,Sheet2!$J$5:$L$17,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26">
         <v>70000</v>
       </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <f>D26+1</f>
+        <v>45779</v>
+      </c>
+      <c r="E27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>300000</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <f>VLOOKUP(K27,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>300000</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>37500</v>
+      </c>
+      <c r="K28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28">
+        <f>VLOOKUP(K28,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>37500</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>37000</v>
+      </c>
+      <c r="K29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <f>VLOOKUP(K29,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>37000</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>40000</v>
+      </c>
+      <c r="K30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <f>VLOOKUP(K30,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>40000</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>60000</v>
+      </c>
+      <c r="K31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31">
+        <f>VLOOKUP(K31,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>60000</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>64000</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f>VLOOKUP(K32,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>64000</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D33" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>184000</v>
+      </c>
+      <c r="K33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33">
+        <f>VLOOKUP(K33,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>184000</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D34" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>238000</v>
+      </c>
+      <c r="K34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34">
+        <f>VLOOKUP(K34,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>238000</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D35" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>55000</v>
+      </c>
+      <c r="K35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <f>VLOOKUP(K35,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>55000</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D36" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>35000</v>
+      </c>
+      <c r="K36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36">
+        <f>VLOOKUP(K36,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>35000</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D37" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>18000</v>
+      </c>
+      <c r="K37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37">
+        <f>VLOOKUP(K37,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>18000</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D38" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>117000</v>
+      </c>
+      <c r="K38" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38">
+        <f>VLOOKUP(K38,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>117000</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D39" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>296000</v>
+      </c>
+      <c r="K39" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <f>VLOOKUP(K39,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>296000</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D40" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>17000</v>
+      </c>
+      <c r="K40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40">
+        <f>VLOOKUP(K40,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>17000</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D41" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>129000</v>
+      </c>
+      <c r="K41" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <f>VLOOKUP(K41,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>129000</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D42" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>74000</v>
+      </c>
+      <c r="K42" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42">
+        <f>VLOOKUP(K42,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>74000</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D43" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" t="s">
+        <v>149</v>
+      </c>
+      <c r="H43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>138000</v>
+      </c>
+      <c r="K43" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43">
+        <f>VLOOKUP(K43,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>138000</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D44" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" t="s">
+        <v>152</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>40000</v>
+      </c>
+      <c r="K44" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <f>VLOOKUP(K44,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>40000</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D45" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>200000</v>
+      </c>
+      <c r="K45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45">
+        <f>VLOOKUP(K45,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>200000</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D46" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E46" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" t="s">
+        <v>158</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>72000</v>
+      </c>
+      <c r="K46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <f>VLOOKUP(K46,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>72000</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D47" s="1">
+        <v>45779</v>
+      </c>
+      <c r="E47" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>57000</v>
+      </c>
+      <c r="K47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <f>VLOOKUP(K47,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>57000</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D48" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E48" t="s">
+        <v>161</v>
+      </c>
+      <c r="F48" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" t="s">
+        <v>163</v>
+      </c>
+      <c r="H48" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48">
+        <v>60000</v>
+      </c>
+      <c r="K48" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48">
+        <f>VLOOKUP(K48,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>60000</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D49" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E49" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" t="s">
+        <v>166</v>
+      </c>
+      <c r="H49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>45000</v>
+      </c>
+      <c r="K49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49">
+        <f>VLOOKUP(K49,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>45000</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D50" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E50" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" t="s">
+        <v>169</v>
+      </c>
+      <c r="H50" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>79000</v>
+      </c>
+      <c r="K50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L50">
+        <f>VLOOKUP(K50,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>79000</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D51" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F51" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" t="s">
+        <v>171</v>
+      </c>
+      <c r="H51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>19000</v>
+      </c>
+      <c r="K51" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51">
+        <f>VLOOKUP(K51,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>19000</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D52" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" t="s">
+        <v>173</v>
+      </c>
+      <c r="G52" t="s">
+        <v>174</v>
+      </c>
+      <c r="H52" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>100000</v>
+      </c>
+      <c r="K52" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52">
+        <f>VLOOKUP(K52,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>100000</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D53" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E53" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" t="s">
+        <v>177</v>
+      </c>
+      <c r="H53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>52000</v>
+      </c>
+      <c r="K53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53">
+        <f>VLOOKUP(K53,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>52000</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D54" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" t="s">
+        <v>179</v>
+      </c>
+      <c r="G54" t="s">
+        <v>180</v>
+      </c>
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>22000</v>
+      </c>
+      <c r="K54" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54">
+        <f>VLOOKUP(K54,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>22000</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D55" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E55" t="s">
+        <v>181</v>
+      </c>
+      <c r="F55" t="s">
+        <v>180</v>
+      </c>
+      <c r="G55" t="s">
+        <v>182</v>
+      </c>
+      <c r="H55" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>45000</v>
+      </c>
+      <c r="K55" t="s">
+        <v>9</v>
+      </c>
+      <c r="L55">
+        <f>VLOOKUP(K55,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>45000</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D56" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E56" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" t="s">
+        <v>184</v>
+      </c>
+      <c r="G56" t="s">
+        <v>185</v>
+      </c>
+      <c r="H56" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>335000</v>
+      </c>
+      <c r="K56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56">
+        <f>VLOOKUP(K56,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>335000</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D57" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E57" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" t="s">
+        <v>187</v>
+      </c>
+      <c r="G57" t="s">
+        <v>188</v>
+      </c>
+      <c r="H57" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57">
+        <v>73000</v>
+      </c>
+      <c r="K57" t="s">
+        <v>29</v>
+      </c>
+      <c r="L57">
+        <f>VLOOKUP(K57,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>73000</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D58" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E58" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58" t="s">
+        <v>190</v>
+      </c>
+      <c r="H58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>17000</v>
+      </c>
+      <c r="K58" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58">
+        <f>VLOOKUP(K58,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>17000</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D59" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E59" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" t="s">
+        <v>192</v>
+      </c>
+      <c r="G59" t="s">
+        <v>193</v>
+      </c>
+      <c r="H59" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <v>65000</v>
+      </c>
+      <c r="K59" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59">
+        <f>VLOOKUP(K59,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>65000</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D60" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E60" t="s">
+        <v>194</v>
+      </c>
+      <c r="F60" t="s">
+        <v>195</v>
+      </c>
+      <c r="G60" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <v>103000</v>
+      </c>
+      <c r="K60" t="s">
+        <v>9</v>
+      </c>
+      <c r="L60">
+        <f>VLOOKUP(K60,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>103000</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D61" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E61" t="s">
+        <v>197</v>
+      </c>
+      <c r="F61" t="s">
+        <v>198</v>
+      </c>
+      <c r="G61" t="s">
+        <v>199</v>
+      </c>
+      <c r="H61" t="s">
+        <v>3</v>
+      </c>
+      <c r="I61" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>215000</v>
+      </c>
+      <c r="K61" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61">
+        <f>VLOOKUP(K61,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>215000</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D62" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E62" t="s">
+        <v>200</v>
+      </c>
+      <c r="F62" t="s">
+        <v>201</v>
+      </c>
+      <c r="G62" t="s">
+        <v>202</v>
+      </c>
+      <c r="H62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>104000</v>
+      </c>
+      <c r="K62" t="s">
+        <v>9</v>
+      </c>
+      <c r="L62">
+        <f>VLOOKUP(K62,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>104000</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D63" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E63" t="s">
+        <v>203</v>
+      </c>
+      <c r="F63" t="s">
+        <v>204</v>
+      </c>
+      <c r="G63" t="s">
+        <v>205</v>
+      </c>
+      <c r="H63" t="s">
+        <v>3</v>
+      </c>
+      <c r="I63" t="s">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>72000</v>
+      </c>
+      <c r="K63" t="s">
+        <v>9</v>
+      </c>
+      <c r="L63">
+        <f>VLOOKUP(K63,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>72000</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D64" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E64" t="s">
+        <v>206</v>
+      </c>
+      <c r="F64" t="s">
+        <v>207</v>
+      </c>
+      <c r="G64" t="s">
+        <v>208</v>
+      </c>
+      <c r="H64" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" t="s">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>132000</v>
+      </c>
+      <c r="K64" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64">
+        <f>VLOOKUP(K64,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>132000</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D65" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E65" t="s">
+        <v>209</v>
+      </c>
+      <c r="F65" t="s">
+        <v>210</v>
+      </c>
+      <c r="G65" t="s">
+        <v>211</v>
+      </c>
+      <c r="H65" t="s">
+        <v>3</v>
+      </c>
+      <c r="I65" t="s">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>108000</v>
+      </c>
+      <c r="K65" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65">
+        <f>VLOOKUP(K65,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>108000</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D66" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E66" t="s">
+        <v>212</v>
+      </c>
+      <c r="F66" t="s">
+        <v>213</v>
+      </c>
+      <c r="G66" t="s">
+        <v>214</v>
+      </c>
+      <c r="H66" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>93000</v>
+      </c>
+      <c r="K66" t="s">
+        <v>9</v>
+      </c>
+      <c r="L66">
+        <f>VLOOKUP(K66,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>93000</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D67" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E67" t="s">
+        <v>215</v>
+      </c>
+      <c r="F67" t="s">
+        <v>216</v>
+      </c>
+      <c r="G67" t="s">
+        <v>217</v>
+      </c>
+      <c r="H67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" t="s">
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <v>180000</v>
+      </c>
+      <c r="K67" t="s">
+        <v>9</v>
+      </c>
+      <c r="L67">
+        <f>VLOOKUP(K67,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>180000</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D68" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E68" t="s">
+        <v>218</v>
+      </c>
+      <c r="F68" t="s">
+        <v>219</v>
+      </c>
+      <c r="G68" t="s">
+        <v>220</v>
+      </c>
+      <c r="H68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s">
+        <v>4</v>
+      </c>
+      <c r="J68">
+        <v>81000</v>
+      </c>
+      <c r="K68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L68">
+        <f>VLOOKUP(K68,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>81000</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D69" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E69" t="s">
+        <v>221</v>
+      </c>
+      <c r="F69" t="s">
+        <v>222</v>
+      </c>
+      <c r="G69" t="s">
+        <v>223</v>
+      </c>
+      <c r="H69" t="s">
+        <v>3</v>
+      </c>
+      <c r="I69" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>80000</v>
+      </c>
+      <c r="K69" t="s">
+        <v>9</v>
+      </c>
+      <c r="L69">
+        <f>VLOOKUP(K69,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>80000</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D70" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E70" t="s">
+        <v>224</v>
+      </c>
+      <c r="F70" t="s">
+        <v>225</v>
+      </c>
+      <c r="G70" t="s">
+        <v>226</v>
+      </c>
+      <c r="H70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I70" t="s">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>100000</v>
+      </c>
+      <c r="K70" t="s">
+        <v>5</v>
+      </c>
+      <c r="L70">
+        <f>VLOOKUP(K70,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>100000</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D71" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E71" t="s">
+        <v>227</v>
+      </c>
+      <c r="F71" t="s">
+        <v>228</v>
+      </c>
+      <c r="G71" t="s">
+        <v>229</v>
+      </c>
+      <c r="H71" t="s">
+        <v>3</v>
+      </c>
+      <c r="I71" t="s">
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <v>4000</v>
+      </c>
+      <c r="K71" t="s">
+        <v>9</v>
+      </c>
+      <c r="L71">
+        <f>VLOOKUP(K71,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>4000</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D72" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E72" t="s">
+        <v>230</v>
+      </c>
+      <c r="F72" t="s">
+        <v>229</v>
+      </c>
+      <c r="G72" t="s">
+        <v>231</v>
+      </c>
+      <c r="H72" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>119000</v>
+      </c>
+      <c r="K72" t="s">
+        <v>9</v>
+      </c>
+      <c r="L72">
+        <f>VLOOKUP(K72,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>119000</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D73" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E73" t="s">
+        <v>232</v>
+      </c>
+      <c r="F73" t="s">
+        <v>231</v>
+      </c>
+      <c r="G73" t="s">
+        <v>233</v>
+      </c>
+      <c r="H73" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" t="s">
+        <v>4</v>
+      </c>
+      <c r="J73">
+        <v>65000</v>
+      </c>
+      <c r="K73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L73">
+        <f>VLOOKUP(K73,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>65000</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D74" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E74" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" t="s">
+        <v>233</v>
+      </c>
+      <c r="G74" t="s">
+        <v>235</v>
+      </c>
+      <c r="H74" t="s">
+        <v>3</v>
+      </c>
+      <c r="I74" t="s">
+        <v>4</v>
+      </c>
+      <c r="J74">
+        <v>71000</v>
+      </c>
+      <c r="K74" t="s">
+        <v>9</v>
+      </c>
+      <c r="L74">
+        <f>VLOOKUP(K74,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>71000</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D75" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E75" t="s">
+        <v>236</v>
+      </c>
+      <c r="F75" t="s">
+        <v>237</v>
+      </c>
+      <c r="G75" t="s">
+        <v>238</v>
+      </c>
+      <c r="H75" t="s">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s">
+        <v>4</v>
+      </c>
+      <c r="J75">
+        <v>27000</v>
+      </c>
+      <c r="K75" t="s">
+        <v>9</v>
+      </c>
+      <c r="L75">
+        <f>VLOOKUP(K75,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>27000</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D76" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E76" t="s">
+        <v>239</v>
+      </c>
+      <c r="F76" t="s">
+        <v>240</v>
+      </c>
+      <c r="G76" t="s">
+        <v>241</v>
+      </c>
+      <c r="H76" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76">
+        <v>65000</v>
+      </c>
+      <c r="K76" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76">
+        <f>VLOOKUP(K76,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>65000</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D77" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E77" t="s">
+        <v>242</v>
+      </c>
+      <c r="F77" t="s">
+        <v>243</v>
+      </c>
+      <c r="G77" t="s">
+        <v>244</v>
+      </c>
+      <c r="H77" t="s">
+        <v>3</v>
+      </c>
+      <c r="I77" t="s">
+        <v>4</v>
+      </c>
+      <c r="J77">
+        <v>121000</v>
+      </c>
+      <c r="K77" t="s">
+        <v>9</v>
+      </c>
+      <c r="L77">
+        <f>VLOOKUP(K77,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>121000</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D78" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E78" t="s">
+        <v>245</v>
+      </c>
+      <c r="F78" t="s">
+        <v>246</v>
+      </c>
+      <c r="G78" t="s">
+        <v>247</v>
+      </c>
+      <c r="H78" t="s">
+        <v>3</v>
+      </c>
+      <c r="I78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J78">
+        <v>60000</v>
+      </c>
+      <c r="K78" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78">
+        <f>VLOOKUP(K78,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>60000</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D79" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E79" t="s">
+        <v>248</v>
+      </c>
+      <c r="F79" t="s">
+        <v>249</v>
+      </c>
+      <c r="G79" t="s">
+        <v>250</v>
+      </c>
+      <c r="H79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" t="s">
+        <v>4</v>
+      </c>
+      <c r="J79">
+        <v>151000</v>
+      </c>
+      <c r="K79" t="s">
+        <v>5</v>
+      </c>
+      <c r="L79">
+        <f>VLOOKUP(K79,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>151000</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D80" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E80" t="s">
+        <v>251</v>
+      </c>
+      <c r="F80" t="s">
+        <v>252</v>
+      </c>
+      <c r="G80" t="s">
+        <v>253</v>
+      </c>
+      <c r="H80" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" t="s">
+        <v>4</v>
+      </c>
+      <c r="J80">
+        <v>44000</v>
+      </c>
+      <c r="K80" t="s">
+        <v>5</v>
+      </c>
+      <c r="L80">
+        <f>VLOOKUP(K80,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>44000</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D81" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E81" t="s">
+        <v>254</v>
+      </c>
+      <c r="F81" t="s">
+        <v>255</v>
+      </c>
+      <c r="G81" t="s">
+        <v>256</v>
+      </c>
+      <c r="H81" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81">
+        <v>179000</v>
+      </c>
+      <c r="K81" t="s">
+        <v>9</v>
+      </c>
+      <c r="L81">
+        <f>VLOOKUP(K81,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>179000</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D82" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E82" t="s">
+        <v>257</v>
+      </c>
+      <c r="F82" t="s">
+        <v>258</v>
+      </c>
+      <c r="G82" t="s">
+        <v>259</v>
+      </c>
+      <c r="H82" t="s">
+        <v>3</v>
+      </c>
+      <c r="I82" t="s">
+        <v>4</v>
+      </c>
+      <c r="J82">
+        <v>271000</v>
+      </c>
+      <c r="K82" t="s">
+        <v>9</v>
+      </c>
+      <c r="L82">
+        <f>VLOOKUP(K82,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>271000</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D83" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E83" t="s">
+        <v>260</v>
+      </c>
+      <c r="F83" t="s">
+        <v>261</v>
+      </c>
+      <c r="G83" t="s">
+        <v>262</v>
+      </c>
+      <c r="H83" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83">
+        <v>67000</v>
+      </c>
+      <c r="K83" t="s">
+        <v>9</v>
+      </c>
+      <c r="L83">
+        <f>VLOOKUP(K83,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>67000</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D84" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E84" t="s">
+        <v>263</v>
+      </c>
+      <c r="F84" t="s">
+        <v>264</v>
+      </c>
+      <c r="G84" t="s">
+        <v>256</v>
+      </c>
+      <c r="H84" t="s">
+        <v>3</v>
+      </c>
+      <c r="I84" t="s">
+        <v>4</v>
+      </c>
+      <c r="J84">
+        <v>15000</v>
+      </c>
+      <c r="K84" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84">
+        <f>VLOOKUP(K84,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>15000</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D85" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E85" t="s">
+        <v>265</v>
+      </c>
+      <c r="F85" t="s">
+        <v>266</v>
+      </c>
+      <c r="G85" t="s">
+        <v>266</v>
+      </c>
+      <c r="H85" t="s">
+        <v>3</v>
+      </c>
+      <c r="I85" t="s">
+        <v>4</v>
+      </c>
+      <c r="J85">
+        <v>4000</v>
+      </c>
+      <c r="K85" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85">
+        <f>VLOOKUP(K85,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>4000</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D86" s="1">
+        <v>45780</v>
+      </c>
+      <c r="E86" t="s">
+        <v>267</v>
+      </c>
+      <c r="F86" t="s">
+        <v>268</v>
+      </c>
+      <c r="G86" t="s">
+        <v>269</v>
+      </c>
+      <c r="H86" t="s">
+        <v>3</v>
+      </c>
+      <c r="I86" t="s">
+        <v>4</v>
+      </c>
+      <c r="J86">
+        <v>99000</v>
+      </c>
+      <c r="K86" t="s">
+        <v>5</v>
+      </c>
+      <c r="L86">
+        <f>VLOOKUP(K86,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>99000</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>637</v>
+      </c>
+      <c r="D87" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E87" t="s">
+        <v>520</v>
+      </c>
+      <c r="F87" t="s">
+        <v>270</v>
+      </c>
+      <c r="G87" t="s">
+        <v>271</v>
+      </c>
+      <c r="H87" t="s">
+        <v>3</v>
+      </c>
+      <c r="I87" t="s">
+        <v>4</v>
+      </c>
+      <c r="J87">
+        <v>25000</v>
+      </c>
+      <c r="K87" t="s">
+        <v>9</v>
+      </c>
+      <c r="L87">
+        <f>VLOOKUP(K87,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>25000</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D88" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E88" t="s">
+        <v>272</v>
+      </c>
+      <c r="F88" t="s">
+        <v>273</v>
+      </c>
+      <c r="G88" t="s">
+        <v>274</v>
+      </c>
+      <c r="H88" t="s">
+        <v>3</v>
+      </c>
+      <c r="I88" t="s">
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <v>16000</v>
+      </c>
+      <c r="K88" t="s">
+        <v>9</v>
+      </c>
+      <c r="L88">
+        <f>VLOOKUP(K88,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>16000</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D89" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E89" t="s">
+        <v>275</v>
+      </c>
+      <c r="F89" t="s">
+        <v>276</v>
+      </c>
+      <c r="G89" t="s">
+        <v>277</v>
+      </c>
+      <c r="H89" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89">
+        <v>52000</v>
+      </c>
+      <c r="K89" t="s">
+        <v>9</v>
+      </c>
+      <c r="L89">
+        <f>VLOOKUP(K89,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>52000</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D90" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E90" t="s">
+        <v>278</v>
+      </c>
+      <c r="F90" t="s">
+        <v>279</v>
+      </c>
+      <c r="G90" t="s">
+        <v>280</v>
+      </c>
+      <c r="H90" t="s">
+        <v>3</v>
+      </c>
+      <c r="I90" t="s">
+        <v>4</v>
+      </c>
+      <c r="J90">
+        <v>22000</v>
+      </c>
+      <c r="K90" t="s">
+        <v>5</v>
+      </c>
+      <c r="L90">
+        <f>VLOOKUP(K90,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>22000</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D91" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E91" t="s">
+        <v>281</v>
+      </c>
+      <c r="F91" t="s">
+        <v>280</v>
+      </c>
+      <c r="G91" t="s">
+        <v>282</v>
+      </c>
+      <c r="H91" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" t="s">
+        <v>68</v>
+      </c>
+      <c r="J91">
+        <v>7500</v>
+      </c>
+      <c r="K91" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91">
+        <f>VLOOKUP(K91,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>7500</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D92" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E92" t="s">
+        <v>283</v>
+      </c>
+      <c r="F92" t="s">
+        <v>284</v>
+      </c>
+      <c r="G92" t="s">
+        <v>285</v>
+      </c>
+      <c r="H92" t="s">
+        <v>3</v>
+      </c>
+      <c r="I92" t="s">
+        <v>4</v>
+      </c>
+      <c r="J92">
+        <v>65000</v>
+      </c>
+      <c r="K92" t="s">
+        <v>9</v>
+      </c>
+      <c r="L92">
+        <f>VLOOKUP(K92,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>65000</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D93" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E93" t="s">
+        <v>286</v>
+      </c>
+      <c r="F93" t="s">
+        <v>287</v>
+      </c>
+      <c r="G93" t="s">
+        <v>288</v>
+      </c>
+      <c r="H93" t="s">
+        <v>3</v>
+      </c>
+      <c r="I93" t="s">
+        <v>4</v>
+      </c>
+      <c r="J93">
+        <v>60000</v>
+      </c>
+      <c r="K93" t="s">
+        <v>5</v>
+      </c>
+      <c r="L93">
+        <f>VLOOKUP(K93,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>60000</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D94" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E94" t="s">
+        <v>289</v>
+      </c>
+      <c r="F94" t="s">
+        <v>290</v>
+      </c>
+      <c r="G94" t="s">
+        <v>291</v>
+      </c>
+      <c r="H94" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94">
+        <v>42000</v>
+      </c>
+      <c r="K94" t="s">
+        <v>9</v>
+      </c>
+      <c r="L94">
+        <f>VLOOKUP(K94,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>42000</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D95" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E95" t="s">
+        <v>292</v>
+      </c>
+      <c r="F95" t="s">
+        <v>293</v>
+      </c>
+      <c r="G95" t="s">
+        <v>294</v>
+      </c>
+      <c r="H95" t="s">
+        <v>3</v>
+      </c>
+      <c r="I95" t="s">
+        <v>4</v>
+      </c>
+      <c r="J95">
+        <v>86000</v>
+      </c>
+      <c r="K95" t="s">
+        <v>5</v>
+      </c>
+      <c r="L95">
+        <f>VLOOKUP(K95,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>86000</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D96" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E96" t="s">
+        <v>295</v>
+      </c>
+      <c r="F96" t="s">
+        <v>296</v>
+      </c>
+      <c r="G96" t="s">
+        <v>296</v>
+      </c>
+      <c r="H96" t="s">
+        <v>3</v>
+      </c>
+      <c r="I96" t="s">
+        <v>68</v>
+      </c>
+      <c r="J96">
+        <v>4000</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96">
+        <f>VLOOKUP(K96,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>4000</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D97" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E97" t="s">
+        <v>297</v>
+      </c>
+      <c r="F97" t="s">
+        <v>298</v>
+      </c>
+      <c r="G97" t="s">
+        <v>299</v>
+      </c>
+      <c r="H97" t="s">
+        <v>3</v>
+      </c>
+      <c r="I97" t="s">
+        <v>4</v>
+      </c>
+      <c r="J97">
+        <v>51000</v>
+      </c>
+      <c r="K97" t="s">
+        <v>9</v>
+      </c>
+      <c r="L97">
+        <f>VLOOKUP(K97,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>51000</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D98" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E98" t="s">
+        <v>300</v>
+      </c>
+      <c r="F98" t="s">
+        <v>301</v>
+      </c>
+      <c r="G98" t="s">
+        <v>302</v>
+      </c>
+      <c r="H98" t="s">
+        <v>3</v>
+      </c>
+      <c r="I98" t="s">
+        <v>4</v>
+      </c>
+      <c r="J98">
+        <v>137000</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98">
+        <f>VLOOKUP(K98,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>137000</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D99" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E99" t="s">
+        <v>303</v>
+      </c>
+      <c r="F99" t="s">
+        <v>302</v>
+      </c>
+      <c r="G99" t="s">
+        <v>304</v>
+      </c>
+      <c r="H99" t="s">
+        <v>3</v>
+      </c>
+      <c r="I99" t="s">
+        <v>4</v>
+      </c>
+      <c r="J99">
+        <v>237000</v>
+      </c>
+      <c r="K99" t="s">
+        <v>5</v>
+      </c>
+      <c r="L99">
+        <f>VLOOKUP(K99,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>237000</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D100" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E100" t="s">
+        <v>305</v>
+      </c>
+      <c r="F100" t="s">
+        <v>306</v>
+      </c>
+      <c r="G100" t="s">
+        <v>306</v>
+      </c>
+      <c r="H100" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100">
+        <v>10000</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100">
+        <f>VLOOKUP(K100,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>10000</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D101" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E101" t="s">
+        <v>307</v>
+      </c>
+      <c r="F101" t="s">
+        <v>308</v>
+      </c>
+      <c r="G101" t="s">
+        <v>309</v>
+      </c>
+      <c r="H101" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101">
+        <v>30000</v>
+      </c>
+      <c r="K101" t="s">
+        <v>9</v>
+      </c>
+      <c r="L101">
+        <f>VLOOKUP(K101,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>30000</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D102" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E102" t="s">
+        <v>310</v>
+      </c>
+      <c r="F102" t="s">
+        <v>311</v>
+      </c>
+      <c r="G102" t="s">
+        <v>311</v>
+      </c>
+      <c r="H102" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102">
+        <v>46000</v>
+      </c>
+      <c r="K102" t="s">
+        <v>9</v>
+      </c>
+      <c r="L102">
+        <f>VLOOKUP(K102,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>46000</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D103" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E103" t="s">
+        <v>312</v>
+      </c>
+      <c r="F103" t="s">
+        <v>313</v>
+      </c>
+      <c r="G103" t="s">
+        <v>314</v>
+      </c>
+      <c r="H103" t="s">
+        <v>3</v>
+      </c>
+      <c r="I103" t="s">
+        <v>4</v>
+      </c>
+      <c r="J103">
+        <v>36000</v>
+      </c>
+      <c r="K103" t="s">
+        <v>9</v>
+      </c>
+      <c r="L103">
+        <f>VLOOKUP(K103,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>36000</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D104" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E104" t="s">
+        <v>315</v>
+      </c>
+      <c r="F104" t="s">
+        <v>316</v>
+      </c>
+      <c r="G104" t="s">
+        <v>317</v>
+      </c>
+      <c r="H104" t="s">
+        <v>3</v>
+      </c>
+      <c r="I104" t="s">
+        <v>4</v>
+      </c>
+      <c r="J104">
+        <v>34000</v>
+      </c>
+      <c r="K104" t="s">
+        <v>5</v>
+      </c>
+      <c r="L104">
+        <f>VLOOKUP(K104,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>34000</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D105" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E105" t="s">
+        <v>318</v>
+      </c>
+      <c r="F105" t="s">
+        <v>319</v>
+      </c>
+      <c r="G105" t="s">
+        <v>320</v>
+      </c>
+      <c r="H105" t="s">
+        <v>3</v>
+      </c>
+      <c r="I105" t="s">
+        <v>4</v>
+      </c>
+      <c r="J105">
+        <v>10000</v>
+      </c>
+      <c r="K105" t="s">
+        <v>5</v>
+      </c>
+      <c r="L105">
+        <f>VLOOKUP(K105,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>10000</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D106" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E106" t="s">
+        <v>321</v>
+      </c>
+      <c r="F106" t="s">
+        <v>320</v>
+      </c>
+      <c r="G106" t="s">
+        <v>322</v>
+      </c>
+      <c r="H106" t="s">
+        <v>3</v>
+      </c>
+      <c r="I106" t="s">
+        <v>4</v>
+      </c>
+      <c r="J106">
+        <v>78000</v>
+      </c>
+      <c r="K106" t="s">
+        <v>9</v>
+      </c>
+      <c r="L106">
+        <f>VLOOKUP(K106,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>78000</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D107" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E107" t="s">
+        <v>323</v>
+      </c>
+      <c r="F107" t="s">
+        <v>324</v>
+      </c>
+      <c r="G107" t="s">
+        <v>325</v>
+      </c>
+      <c r="H107" t="s">
+        <v>3</v>
+      </c>
+      <c r="I107" t="s">
+        <v>4</v>
+      </c>
+      <c r="J107">
+        <v>149000</v>
+      </c>
+      <c r="K107" t="s">
+        <v>9</v>
+      </c>
+      <c r="L107">
+        <f>VLOOKUP(K107,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>149000</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D108" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E108" t="s">
+        <v>326</v>
+      </c>
+      <c r="F108" t="s">
+        <v>325</v>
+      </c>
+      <c r="G108" t="s">
+        <v>327</v>
+      </c>
+      <c r="H108" t="s">
+        <v>3</v>
+      </c>
+      <c r="I108" t="s">
+        <v>4</v>
+      </c>
+      <c r="J108">
+        <v>3000</v>
+      </c>
+      <c r="K108" t="s">
+        <v>9</v>
+      </c>
+      <c r="L108">
+        <f>VLOOKUP(K108,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>3000</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D109" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E109" t="s">
+        <v>328</v>
+      </c>
+      <c r="F109" t="s">
+        <v>327</v>
+      </c>
+      <c r="G109" t="s">
+        <v>329</v>
+      </c>
+      <c r="H109" t="s">
+        <v>3</v>
+      </c>
+      <c r="I109" t="s">
+        <v>4</v>
+      </c>
+      <c r="J109">
+        <v>70000</v>
+      </c>
+      <c r="K109" t="s">
+        <v>9</v>
+      </c>
+      <c r="L109">
+        <f>VLOOKUP(K109,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>70000</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D110" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E110" t="s">
+        <v>330</v>
+      </c>
+      <c r="F110" t="s">
+        <v>331</v>
+      </c>
+      <c r="G110" t="s">
+        <v>332</v>
+      </c>
+      <c r="H110" t="s">
+        <v>3</v>
+      </c>
+      <c r="I110" t="s">
+        <v>4</v>
+      </c>
+      <c r="J110">
+        <v>44000</v>
+      </c>
+      <c r="K110" t="s">
+        <v>5</v>
+      </c>
+      <c r="L110">
+        <f>VLOOKUP(K110,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>44000</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D111" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E111" t="s">
+        <v>333</v>
+      </c>
+      <c r="F111" t="s">
+        <v>332</v>
+      </c>
+      <c r="G111" t="s">
+        <v>334</v>
+      </c>
+      <c r="H111" t="s">
+        <v>3</v>
+      </c>
+      <c r="I111" t="s">
+        <v>4</v>
+      </c>
+      <c r="J111">
+        <v>89000</v>
+      </c>
+      <c r="K111" t="s">
+        <v>5</v>
+      </c>
+      <c r="L111">
+        <f>VLOOKUP(K111,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>89000</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D112" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E112" t="s">
+        <v>335</v>
+      </c>
+      <c r="F112" t="s">
+        <v>334</v>
+      </c>
+      <c r="G112" t="s">
+        <v>336</v>
+      </c>
+      <c r="H112" t="s">
+        <v>3</v>
+      </c>
+      <c r="I112" t="s">
+        <v>4</v>
+      </c>
+      <c r="J112">
+        <v>19000</v>
+      </c>
+      <c r="K112" t="s">
+        <v>5</v>
+      </c>
+      <c r="L112">
+        <f>VLOOKUP(K112,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>19000</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D113" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E113" t="s">
+        <v>337</v>
+      </c>
+      <c r="F113" t="s">
+        <v>338</v>
+      </c>
+      <c r="G113" t="s">
+        <v>339</v>
+      </c>
+      <c r="H113" t="s">
+        <v>3</v>
+      </c>
+      <c r="I113" t="s">
+        <v>4</v>
+      </c>
+      <c r="J113">
+        <v>40000</v>
+      </c>
+      <c r="K113" t="s">
+        <v>9</v>
+      </c>
+      <c r="L113">
+        <f>VLOOKUP(K113,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>40000</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D114" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E114" t="s">
+        <v>340</v>
+      </c>
+      <c r="F114" t="s">
+        <v>339</v>
+      </c>
+      <c r="G114" t="s">
+        <v>341</v>
+      </c>
+      <c r="H114" t="s">
+        <v>3</v>
+      </c>
+      <c r="I114" t="s">
+        <v>4</v>
+      </c>
+      <c r="J114">
+        <v>14000</v>
+      </c>
+      <c r="K114" t="s">
+        <v>9</v>
+      </c>
+      <c r="L114">
+        <f>VLOOKUP(K114,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>14000</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D115" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E115" t="s">
+        <v>342</v>
+      </c>
+      <c r="F115" t="s">
+        <v>341</v>
+      </c>
+      <c r="G115" t="s">
+        <v>343</v>
+      </c>
+      <c r="H115" t="s">
+        <v>3</v>
+      </c>
+      <c r="I115" t="s">
+        <v>4</v>
+      </c>
+      <c r="J115">
+        <v>125000</v>
+      </c>
+      <c r="K115" t="s">
+        <v>9</v>
+      </c>
+      <c r="L115">
+        <f>VLOOKUP(K115,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>125000</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D116" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E116" t="s">
+        <v>344</v>
+      </c>
+      <c r="F116" t="s">
+        <v>345</v>
+      </c>
+      <c r="G116" t="s">
+        <v>346</v>
+      </c>
+      <c r="H116" t="s">
+        <v>3</v>
+      </c>
+      <c r="I116" t="s">
+        <v>4</v>
+      </c>
+      <c r="J116">
+        <v>111000</v>
+      </c>
+      <c r="K116" t="s">
+        <v>9</v>
+      </c>
+      <c r="L116">
+        <f>VLOOKUP(K116,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>111000</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D117" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E117" t="s">
+        <v>347</v>
+      </c>
+      <c r="F117" t="s">
+        <v>346</v>
+      </c>
+      <c r="G117" t="s">
+        <v>348</v>
+      </c>
+      <c r="H117" t="s">
+        <v>3</v>
+      </c>
+      <c r="I117" t="s">
+        <v>68</v>
+      </c>
+      <c r="J117">
+        <v>14000</v>
+      </c>
+      <c r="K117" t="s">
+        <v>9</v>
+      </c>
+      <c r="L117">
+        <f>VLOOKUP(K117,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>14000</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D118" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E118" t="s">
+        <v>349</v>
+      </c>
+      <c r="F118" t="s">
+        <v>348</v>
+      </c>
+      <c r="G118" t="s">
+        <v>350</v>
+      </c>
+      <c r="H118" t="s">
+        <v>3</v>
+      </c>
+      <c r="I118" t="s">
+        <v>4</v>
+      </c>
+      <c r="J118">
+        <v>70000</v>
+      </c>
+      <c r="K118" t="s">
+        <v>9</v>
+      </c>
+      <c r="L118">
+        <f>VLOOKUP(K118,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>70000</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D119" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E119" t="s">
+        <v>351</v>
+      </c>
+      <c r="F119" t="s">
+        <v>350</v>
+      </c>
+      <c r="G119" t="s">
+        <v>352</v>
+      </c>
+      <c r="H119" t="s">
+        <v>3</v>
+      </c>
+      <c r="I119" t="s">
+        <v>68</v>
+      </c>
+      <c r="J119">
+        <v>7000</v>
+      </c>
+      <c r="K119" t="s">
+        <v>9</v>
+      </c>
+      <c r="L119">
+        <f>VLOOKUP(K119,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>7000</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D120" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E120" t="s">
+        <v>353</v>
+      </c>
+      <c r="F120" t="s">
+        <v>354</v>
+      </c>
+      <c r="G120" t="s">
+        <v>355</v>
+      </c>
+      <c r="H120" t="s">
+        <v>3</v>
+      </c>
+      <c r="I120" t="s">
+        <v>4</v>
+      </c>
+      <c r="J120">
+        <v>40000</v>
+      </c>
+      <c r="K120" t="s">
+        <v>9</v>
+      </c>
+      <c r="L120">
+        <f>VLOOKUP(K120,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>40000</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D121" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E121" t="s">
+        <v>356</v>
+      </c>
+      <c r="F121" t="s">
+        <v>357</v>
+      </c>
+      <c r="G121" t="s">
+        <v>358</v>
+      </c>
+      <c r="H121" t="s">
+        <v>3</v>
+      </c>
+      <c r="I121" t="s">
+        <v>4</v>
+      </c>
+      <c r="J121">
+        <v>46000</v>
+      </c>
+      <c r="K121" t="s">
+        <v>9</v>
+      </c>
+      <c r="L121">
+        <f>VLOOKUP(K121,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>46000</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D122" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E122" t="s">
+        <v>359</v>
+      </c>
+      <c r="F122" t="s">
+        <v>358</v>
+      </c>
+      <c r="G122" t="s">
+        <v>360</v>
+      </c>
+      <c r="H122" t="s">
+        <v>3</v>
+      </c>
+      <c r="I122" t="s">
+        <v>4</v>
+      </c>
+      <c r="J122">
+        <v>73000</v>
+      </c>
+      <c r="K122" t="s">
+        <v>9</v>
+      </c>
+      <c r="L122">
+        <f>VLOOKUP(K122,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>73000</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D123" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E123" t="s">
+        <v>361</v>
+      </c>
+      <c r="F123" t="s">
+        <v>362</v>
+      </c>
+      <c r="G123" t="s">
+        <v>362</v>
+      </c>
+      <c r="H123" t="s">
+        <v>3</v>
+      </c>
+      <c r="I123" t="s">
+        <v>4</v>
+      </c>
+      <c r="J123">
+        <v>17000</v>
+      </c>
+      <c r="K123" t="s">
+        <v>9</v>
+      </c>
+      <c r="L123">
+        <f>VLOOKUP(K123,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>17000</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D124" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E124" t="s">
+        <v>363</v>
+      </c>
+      <c r="F124" t="s">
+        <v>364</v>
+      </c>
+      <c r="G124" t="s">
+        <v>365</v>
+      </c>
+      <c r="H124" t="s">
+        <v>3</v>
+      </c>
+      <c r="I124" t="s">
+        <v>4</v>
+      </c>
+      <c r="J124">
+        <v>12000</v>
+      </c>
+      <c r="K124" t="s">
+        <v>9</v>
+      </c>
+      <c r="L124">
+        <f>VLOOKUP(K124,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>12000</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D125" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E125" t="s">
+        <v>366</v>
+      </c>
+      <c r="F125" t="s">
+        <v>367</v>
+      </c>
+      <c r="G125" t="s">
+        <v>367</v>
+      </c>
+      <c r="H125" t="s">
+        <v>3</v>
+      </c>
+      <c r="I125" t="s">
+        <v>4</v>
+      </c>
+      <c r="J125">
+        <v>33000</v>
+      </c>
+      <c r="K125" t="s">
+        <v>9</v>
+      </c>
+      <c r="L125">
+        <f>VLOOKUP(K125,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>33000</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D126" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E126" t="s">
+        <v>368</v>
+      </c>
+      <c r="F126" t="s">
+        <v>369</v>
+      </c>
+      <c r="G126" t="s">
+        <v>369</v>
+      </c>
+      <c r="H126" t="s">
+        <v>3</v>
+      </c>
+      <c r="I126" t="s">
+        <v>4</v>
+      </c>
+      <c r="J126">
+        <v>8000</v>
+      </c>
+      <c r="K126" t="s">
+        <v>9</v>
+      </c>
+      <c r="L126">
+        <f>VLOOKUP(K126,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>8000</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D127" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E127" t="s">
+        <v>370</v>
+      </c>
+      <c r="F127" t="s">
+        <v>371</v>
+      </c>
+      <c r="G127" t="s">
+        <v>372</v>
+      </c>
+      <c r="H127" t="s">
+        <v>3</v>
+      </c>
+      <c r="I127" t="s">
+        <v>4</v>
+      </c>
+      <c r="J127">
+        <v>49000</v>
+      </c>
+      <c r="K127" t="s">
+        <v>5</v>
+      </c>
+      <c r="L127">
+        <f>VLOOKUP(K127,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>49000</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D128" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E128" t="s">
+        <v>373</v>
+      </c>
+      <c r="F128" t="s">
+        <v>374</v>
+      </c>
+      <c r="G128" t="s">
+        <v>375</v>
+      </c>
+      <c r="H128" t="s">
+        <v>3</v>
+      </c>
+      <c r="I128" t="s">
+        <v>4</v>
+      </c>
+      <c r="J128">
+        <v>23000</v>
+      </c>
+      <c r="K128" t="s">
+        <v>9</v>
+      </c>
+      <c r="L128">
+        <f>VLOOKUP(K128,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>23000</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D129" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E129" t="s">
+        <v>376</v>
+      </c>
+      <c r="F129" t="s">
+        <v>377</v>
+      </c>
+      <c r="G129" t="s">
+        <v>372</v>
+      </c>
+      <c r="H129" t="s">
+        <v>3</v>
+      </c>
+      <c r="I129" t="s">
+        <v>68</v>
+      </c>
+      <c r="J129">
+        <v>3000</v>
+      </c>
+      <c r="K129" t="s">
+        <v>9</v>
+      </c>
+      <c r="L129">
+        <f>VLOOKUP(K129,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>3000</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D130" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E130" t="s">
+        <v>378</v>
+      </c>
+      <c r="F130" t="s">
+        <v>372</v>
+      </c>
+      <c r="G130" t="s">
+        <v>372</v>
+      </c>
+      <c r="H130" t="s">
+        <v>3</v>
+      </c>
+      <c r="I130" t="s">
+        <v>68</v>
+      </c>
+      <c r="J130">
+        <v>3000</v>
+      </c>
+      <c r="K130" t="s">
+        <v>9</v>
+      </c>
+      <c r="L130">
+        <f>VLOOKUP(K130,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>3000</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D131" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E131" t="s">
+        <v>379</v>
+      </c>
+      <c r="F131" t="s">
+        <v>380</v>
+      </c>
+      <c r="G131" t="s">
+        <v>380</v>
+      </c>
+      <c r="H131" t="s">
+        <v>3</v>
+      </c>
+      <c r="I131" t="s">
+        <v>68</v>
+      </c>
+      <c r="J131">
+        <v>8000</v>
+      </c>
+      <c r="K131" t="s">
+        <v>9</v>
+      </c>
+      <c r="L131">
+        <f>VLOOKUP(K131,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>8000</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D132" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E132" t="s">
+        <v>381</v>
+      </c>
+      <c r="F132" t="s">
+        <v>380</v>
+      </c>
+      <c r="G132" t="s">
+        <v>382</v>
+      </c>
+      <c r="H132" t="s">
+        <v>3</v>
+      </c>
+      <c r="I132" t="s">
+        <v>4</v>
+      </c>
+      <c r="J132">
+        <v>68000</v>
+      </c>
+      <c r="K132" t="s">
+        <v>9</v>
+      </c>
+      <c r="L132">
+        <f>VLOOKUP(K132,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>68000</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D133" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E133" t="s">
+        <v>383</v>
+      </c>
+      <c r="F133" t="s">
+        <v>384</v>
+      </c>
+      <c r="G133" t="s">
+        <v>385</v>
+      </c>
+      <c r="H133" t="s">
+        <v>3</v>
+      </c>
+      <c r="I133" t="s">
+        <v>4</v>
+      </c>
+      <c r="J133">
+        <v>68000</v>
+      </c>
+      <c r="K133" t="s">
+        <v>9</v>
+      </c>
+      <c r="L133">
+        <f>VLOOKUP(K133,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>68000</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D134" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E134" t="s">
+        <v>386</v>
+      </c>
+      <c r="F134" t="s">
+        <v>385</v>
+      </c>
+      <c r="G134" t="s">
+        <v>387</v>
+      </c>
+      <c r="H134" t="s">
+        <v>3</v>
+      </c>
+      <c r="I134" t="s">
+        <v>4</v>
+      </c>
+      <c r="J134">
+        <v>77000</v>
+      </c>
+      <c r="K134" t="s">
+        <v>9</v>
+      </c>
+      <c r="L134">
+        <f>VLOOKUP(K134,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>77000</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D135" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E135" t="s">
+        <v>388</v>
+      </c>
+      <c r="F135" t="s">
+        <v>387</v>
+      </c>
+      <c r="G135" t="s">
+        <v>389</v>
+      </c>
+      <c r="H135" t="s">
+        <v>3</v>
+      </c>
+      <c r="I135" t="s">
+        <v>4</v>
+      </c>
+      <c r="J135">
+        <v>92000</v>
+      </c>
+      <c r="K135" t="s">
+        <v>9</v>
+      </c>
+      <c r="L135">
+        <f>VLOOKUP(K135,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>92000</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D136" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E136" t="s">
+        <v>390</v>
+      </c>
+      <c r="F136" t="s">
+        <v>391</v>
+      </c>
+      <c r="G136" t="s">
+        <v>392</v>
+      </c>
+      <c r="H136" t="s">
+        <v>3</v>
+      </c>
+      <c r="I136" t="s">
+        <v>68</v>
+      </c>
+      <c r="J136">
+        <v>18500</v>
+      </c>
+      <c r="K136" t="s">
+        <v>9</v>
+      </c>
+      <c r="L136">
+        <f>VLOOKUP(K136,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>18500</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D137" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E137" t="s">
+        <v>393</v>
+      </c>
+      <c r="F137" t="s">
+        <v>392</v>
+      </c>
+      <c r="G137" t="s">
+        <v>394</v>
+      </c>
+      <c r="H137" t="s">
+        <v>3</v>
+      </c>
+      <c r="I137" t="s">
+        <v>4</v>
+      </c>
+      <c r="J137">
+        <v>55000</v>
+      </c>
+      <c r="K137" t="s">
+        <v>9</v>
+      </c>
+      <c r="L137">
+        <f>VLOOKUP(K137,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>55000</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D138" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E138" t="s">
+        <v>395</v>
+      </c>
+      <c r="F138" t="s">
+        <v>396</v>
+      </c>
+      <c r="G138" t="s">
+        <v>397</v>
+      </c>
+      <c r="H138" t="s">
+        <v>3</v>
+      </c>
+      <c r="I138" t="s">
+        <v>4</v>
+      </c>
+      <c r="J138">
+        <v>76000</v>
+      </c>
+      <c r="K138" t="s">
+        <v>5</v>
+      </c>
+      <c r="L138">
+        <f>VLOOKUP(K138,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>76000</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D139" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E139" t="s">
+        <v>398</v>
+      </c>
+      <c r="F139" t="s">
+        <v>397</v>
+      </c>
+      <c r="G139" t="s">
+        <v>399</v>
+      </c>
+      <c r="H139" t="s">
+        <v>3</v>
+      </c>
+      <c r="I139" t="s">
+        <v>4</v>
+      </c>
+      <c r="J139">
+        <v>64000</v>
+      </c>
+      <c r="K139" t="s">
+        <v>9</v>
+      </c>
+      <c r="L139">
+        <f>VLOOKUP(K139,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>64000</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D140" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E140" t="s">
+        <v>400</v>
+      </c>
+      <c r="F140" t="s">
+        <v>401</v>
+      </c>
+      <c r="G140" t="s">
+        <v>402</v>
+      </c>
+      <c r="H140" t="s">
+        <v>3</v>
+      </c>
+      <c r="I140" t="s">
+        <v>4</v>
+      </c>
+      <c r="J140">
+        <v>46000</v>
+      </c>
+      <c r="K140" t="s">
+        <v>9</v>
+      </c>
+      <c r="L140">
+        <f>VLOOKUP(K140,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>46000</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D141" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E141" t="s">
+        <v>403</v>
+      </c>
+      <c r="F141" t="s">
+        <v>404</v>
+      </c>
+      <c r="G141" t="s">
+        <v>405</v>
+      </c>
+      <c r="H141" t="s">
+        <v>3</v>
+      </c>
+      <c r="I141" t="s">
+        <v>4</v>
+      </c>
+      <c r="J141">
+        <v>65000</v>
+      </c>
+      <c r="K141" t="s">
+        <v>9</v>
+      </c>
+      <c r="L141">
+        <f>VLOOKUP(K141,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>65000</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D142" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E142" t="s">
+        <v>406</v>
+      </c>
+      <c r="F142" t="s">
+        <v>405</v>
+      </c>
+      <c r="G142" t="s">
+        <v>405</v>
+      </c>
+      <c r="H142" t="s">
+        <v>3</v>
+      </c>
+      <c r="I142" t="s">
+        <v>4</v>
+      </c>
+      <c r="J142">
+        <v>38000</v>
+      </c>
+      <c r="K142" t="s">
+        <v>9</v>
+      </c>
+      <c r="L142">
+        <f>VLOOKUP(K142,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>38000</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D143" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E143" t="s">
+        <v>407</v>
+      </c>
+      <c r="F143" t="s">
+        <v>408</v>
+      </c>
+      <c r="G143" t="s">
+        <v>409</v>
+      </c>
+      <c r="H143" t="s">
+        <v>3</v>
+      </c>
+      <c r="I143" t="s">
+        <v>4</v>
+      </c>
+      <c r="J143">
+        <v>46000</v>
+      </c>
+      <c r="K143" t="s">
+        <v>9</v>
+      </c>
+      <c r="L143">
+        <f>VLOOKUP(K143,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>46000</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D144" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E144" t="s">
+        <v>410</v>
+      </c>
+      <c r="F144" t="s">
+        <v>411</v>
+      </c>
+      <c r="G144" t="s">
+        <v>411</v>
+      </c>
+      <c r="H144" t="s">
+        <v>3</v>
+      </c>
+      <c r="I144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J144">
+        <v>20000</v>
+      </c>
+      <c r="K144" t="s">
+        <v>9</v>
+      </c>
+      <c r="L144">
+        <f>VLOOKUP(K144,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>20000</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D145" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E145" t="s">
+        <v>412</v>
+      </c>
+      <c r="F145" t="s">
+        <v>413</v>
+      </c>
+      <c r="G145" t="s">
+        <v>414</v>
+      </c>
+      <c r="H145" t="s">
+        <v>3</v>
+      </c>
+      <c r="I145" t="s">
+        <v>4</v>
+      </c>
+      <c r="J145">
+        <v>72000</v>
+      </c>
+      <c r="K145" t="s">
+        <v>5</v>
+      </c>
+      <c r="L145">
+        <f>VLOOKUP(K145,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>72000</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D146" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E146" t="s">
+        <v>415</v>
+      </c>
+      <c r="F146" t="s">
+        <v>416</v>
+      </c>
+      <c r="G146" t="s">
+        <v>417</v>
+      </c>
+      <c r="H146" t="s">
+        <v>3</v>
+      </c>
+      <c r="I146" t="s">
+        <v>4</v>
+      </c>
+      <c r="J146">
+        <v>10000</v>
+      </c>
+      <c r="K146" t="s">
+        <v>9</v>
+      </c>
+      <c r="L146">
+        <f>VLOOKUP(K146,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>10000</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D147" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E147" t="s">
+        <v>418</v>
+      </c>
+      <c r="F147" t="s">
+        <v>419</v>
+      </c>
+      <c r="G147" t="s">
+        <v>420</v>
+      </c>
+      <c r="H147" t="s">
+        <v>3</v>
+      </c>
+      <c r="I147" t="s">
+        <v>4</v>
+      </c>
+      <c r="J147">
+        <v>32000</v>
+      </c>
+      <c r="K147" t="s">
+        <v>5</v>
+      </c>
+      <c r="L147">
+        <f>VLOOKUP(K147,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>32000</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D148" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E148" t="s">
+        <v>421</v>
+      </c>
+      <c r="F148" t="s">
+        <v>422</v>
+      </c>
+      <c r="G148" t="s">
+        <v>423</v>
+      </c>
+      <c r="H148" t="s">
+        <v>3</v>
+      </c>
+      <c r="I148" t="s">
+        <v>4</v>
+      </c>
+      <c r="J148">
+        <v>72000</v>
+      </c>
+      <c r="K148" t="s">
+        <v>9</v>
+      </c>
+      <c r="L148">
+        <f>VLOOKUP(K148,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>72000</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D149" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E149" t="s">
+        <v>424</v>
+      </c>
+      <c r="F149" t="s">
+        <v>423</v>
+      </c>
+      <c r="G149" t="s">
+        <v>425</v>
+      </c>
+      <c r="H149" t="s">
+        <v>3</v>
+      </c>
+      <c r="I149" t="s">
+        <v>4</v>
+      </c>
+      <c r="J149">
+        <v>74000</v>
+      </c>
+      <c r="K149" t="s">
+        <v>9</v>
+      </c>
+      <c r="L149">
+        <f>VLOOKUP(K149,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>74000</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D150" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E150" t="s">
+        <v>426</v>
+      </c>
+      <c r="F150" t="s">
+        <v>427</v>
+      </c>
+      <c r="G150" t="s">
+        <v>428</v>
+      </c>
+      <c r="H150" t="s">
+        <v>3</v>
+      </c>
+      <c r="I150" t="s">
+        <v>4</v>
+      </c>
+      <c r="J150">
+        <v>32000</v>
+      </c>
+      <c r="K150" t="s">
+        <v>9</v>
+      </c>
+      <c r="L150">
+        <f>VLOOKUP(K150,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>32000</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D151" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E151" t="s">
+        <v>429</v>
+      </c>
+      <c r="F151" t="s">
+        <v>428</v>
+      </c>
+      <c r="G151" t="s">
+        <v>430</v>
+      </c>
+      <c r="H151" t="s">
+        <v>3</v>
+      </c>
+      <c r="I151" t="s">
+        <v>4</v>
+      </c>
+      <c r="J151">
+        <v>23000</v>
+      </c>
+      <c r="K151" t="s">
+        <v>9</v>
+      </c>
+      <c r="L151">
+        <f>VLOOKUP(K151,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>23000</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D152" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E152" t="s">
+        <v>431</v>
+      </c>
+      <c r="F152" t="s">
+        <v>432</v>
+      </c>
+      <c r="G152" t="s">
+        <v>433</v>
+      </c>
+      <c r="H152" t="s">
+        <v>3</v>
+      </c>
+      <c r="I152" t="s">
+        <v>4</v>
+      </c>
+      <c r="J152">
+        <v>191000</v>
+      </c>
+      <c r="K152" t="s">
+        <v>9</v>
+      </c>
+      <c r="L152">
+        <f>VLOOKUP(K152,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>191000</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D153" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E153" t="s">
+        <v>434</v>
+      </c>
+      <c r="F153" t="s">
+        <v>435</v>
+      </c>
+      <c r="G153" t="s">
+        <v>436</v>
+      </c>
+      <c r="H153" t="s">
+        <v>3</v>
+      </c>
+      <c r="I153" t="s">
+        <v>4</v>
+      </c>
+      <c r="J153">
+        <v>53000</v>
+      </c>
+      <c r="K153" t="s">
+        <v>5</v>
+      </c>
+      <c r="L153">
+        <f>VLOOKUP(K153,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>53000</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D154" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E154" t="s">
+        <v>437</v>
+      </c>
+      <c r="F154" t="s">
+        <v>436</v>
+      </c>
+      <c r="G154" t="s">
+        <v>438</v>
+      </c>
+      <c r="H154" t="s">
+        <v>3</v>
+      </c>
+      <c r="I154" t="s">
+        <v>4</v>
+      </c>
+      <c r="J154">
+        <v>49000</v>
+      </c>
+      <c r="K154" t="s">
+        <v>9</v>
+      </c>
+      <c r="L154">
+        <f>VLOOKUP(K154,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>49000</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D155" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E155" t="s">
+        <v>439</v>
+      </c>
+      <c r="F155" t="s">
+        <v>438</v>
+      </c>
+      <c r="G155" t="s">
+        <v>417</v>
+      </c>
+      <c r="H155" t="s">
+        <v>3</v>
+      </c>
+      <c r="I155" t="s">
+        <v>4</v>
+      </c>
+      <c r="J155">
+        <v>123000</v>
+      </c>
+      <c r="K155" t="s">
+        <v>9</v>
+      </c>
+      <c r="L155">
+        <f>VLOOKUP(K155,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>123000</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D156" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E156" t="s">
+        <v>440</v>
+      </c>
+      <c r="F156" t="s">
+        <v>441</v>
+      </c>
+      <c r="G156" t="s">
+        <v>442</v>
+      </c>
+      <c r="H156" t="s">
+        <v>3</v>
+      </c>
+      <c r="I156" t="s">
+        <v>4</v>
+      </c>
+      <c r="J156">
+        <v>20000</v>
+      </c>
+      <c r="K156" t="s">
+        <v>9</v>
+      </c>
+      <c r="L156">
+        <f>VLOOKUP(K156,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>20000</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D157" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E157" t="s">
+        <v>443</v>
+      </c>
+      <c r="F157" t="s">
+        <v>442</v>
+      </c>
+      <c r="G157" t="s">
+        <v>444</v>
+      </c>
+      <c r="H157" t="s">
+        <v>3</v>
+      </c>
+      <c r="I157" t="s">
+        <v>4</v>
+      </c>
+      <c r="J157">
+        <v>20000</v>
+      </c>
+      <c r="K157" t="s">
+        <v>9</v>
+      </c>
+      <c r="L157">
+        <f>VLOOKUP(K157,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>20000</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D158" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E158" t="s">
+        <v>445</v>
+      </c>
+      <c r="F158" t="s">
+        <v>446</v>
+      </c>
+      <c r="G158" t="s">
+        <v>447</v>
+      </c>
+      <c r="H158" t="s">
+        <v>3</v>
+      </c>
+      <c r="I158" t="s">
+        <v>4</v>
+      </c>
+      <c r="J158">
+        <v>30000</v>
+      </c>
+      <c r="K158" t="s">
+        <v>9</v>
+      </c>
+      <c r="L158">
+        <f>VLOOKUP(K158,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>30000</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D159" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E159" t="s">
+        <v>448</v>
+      </c>
+      <c r="F159" t="s">
+        <v>447</v>
+      </c>
+      <c r="G159" t="s">
+        <v>449</v>
+      </c>
+      <c r="H159" t="s">
+        <v>3</v>
+      </c>
+      <c r="I159" t="s">
+        <v>4</v>
+      </c>
+      <c r="J159">
+        <v>108000</v>
+      </c>
+      <c r="K159" t="s">
+        <v>5</v>
+      </c>
+      <c r="L159">
+        <f>VLOOKUP(K159,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>108000</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D160" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E160" t="s">
+        <v>450</v>
+      </c>
+      <c r="F160" t="s">
+        <v>451</v>
+      </c>
+      <c r="G160" t="s">
+        <v>452</v>
+      </c>
+      <c r="H160" t="s">
+        <v>3</v>
+      </c>
+      <c r="I160" t="s">
+        <v>4</v>
+      </c>
+      <c r="J160">
+        <v>68000</v>
+      </c>
+      <c r="K160" t="s">
+        <v>5</v>
+      </c>
+      <c r="L160">
+        <f>VLOOKUP(K160,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>68000</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D161" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E161" t="s">
+        <v>453</v>
+      </c>
+      <c r="F161" t="s">
+        <v>452</v>
+      </c>
+      <c r="G161" t="s">
+        <v>452</v>
+      </c>
+      <c r="H161" t="s">
+        <v>3</v>
+      </c>
+      <c r="I161" t="s">
+        <v>4</v>
+      </c>
+      <c r="J161">
+        <v>10000</v>
+      </c>
+      <c r="K161" t="s">
+        <v>9</v>
+      </c>
+      <c r="L161">
+        <f>VLOOKUP(K161,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>10000</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D162" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E162" t="s">
+        <v>454</v>
+      </c>
+      <c r="F162" t="s">
+        <v>455</v>
+      </c>
+      <c r="G162" t="s">
+        <v>456</v>
+      </c>
+      <c r="H162" t="s">
+        <v>3</v>
+      </c>
+      <c r="I162" t="s">
+        <v>4</v>
+      </c>
+      <c r="J162">
+        <v>4000</v>
+      </c>
+      <c r="K162" t="s">
+        <v>9</v>
+      </c>
+      <c r="L162">
+        <f>VLOOKUP(K162,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>4000</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D163" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E163" t="s">
+        <v>457</v>
+      </c>
+      <c r="F163" t="s">
+        <v>456</v>
+      </c>
+      <c r="G163" t="s">
+        <v>458</v>
+      </c>
+      <c r="H163" t="s">
+        <v>3</v>
+      </c>
+      <c r="I163" t="s">
+        <v>4</v>
+      </c>
+      <c r="J163">
+        <v>4000</v>
+      </c>
+      <c r="K163" t="s">
+        <v>9</v>
+      </c>
+      <c r="L163">
+        <f>VLOOKUP(K163,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>4000</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D164" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E164" t="s">
+        <v>459</v>
+      </c>
+      <c r="F164" t="s">
+        <v>460</v>
+      </c>
+      <c r="G164" t="s">
+        <v>460</v>
+      </c>
+      <c r="H164" t="s">
+        <v>3</v>
+      </c>
+      <c r="I164" t="s">
+        <v>4</v>
+      </c>
+      <c r="J164">
+        <v>4000</v>
+      </c>
+      <c r="K164" t="s">
+        <v>9</v>
+      </c>
+      <c r="L164">
+        <f>VLOOKUP(K164,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>4000</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D165" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E165" t="s">
+        <v>461</v>
+      </c>
+      <c r="F165" t="s">
+        <v>462</v>
+      </c>
+      <c r="G165" t="s">
+        <v>463</v>
+      </c>
+      <c r="H165" t="s">
+        <v>3</v>
+      </c>
+      <c r="I165" t="s">
+        <v>4</v>
+      </c>
+      <c r="J165">
+        <v>7000</v>
+      </c>
+      <c r="K165" t="s">
+        <v>9</v>
+      </c>
+      <c r="L165">
+        <f>VLOOKUP(K165,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>7000</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D166" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E166" t="s">
+        <v>464</v>
+      </c>
+      <c r="F166" t="s">
+        <v>465</v>
+      </c>
+      <c r="G166" t="s">
+        <v>466</v>
+      </c>
+      <c r="H166" t="s">
+        <v>3</v>
+      </c>
+      <c r="I166" t="s">
+        <v>68</v>
+      </c>
+      <c r="J166">
+        <v>14000</v>
+      </c>
+      <c r="K166" t="s">
+        <v>9</v>
+      </c>
+      <c r="L166">
+        <f>VLOOKUP(K166,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>14000</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D167" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E167" t="s">
+        <v>467</v>
+      </c>
+      <c r="F167" t="s">
+        <v>466</v>
+      </c>
+      <c r="G167" t="s">
+        <v>468</v>
+      </c>
+      <c r="H167" t="s">
+        <v>3</v>
+      </c>
+      <c r="I167" t="s">
+        <v>4</v>
+      </c>
+      <c r="J167">
+        <v>50000</v>
+      </c>
+      <c r="K167" t="s">
+        <v>9</v>
+      </c>
+      <c r="L167">
+        <f>VLOOKUP(K167,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>50000</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D168" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E168" t="s">
+        <v>469</v>
+      </c>
+      <c r="F168" t="s">
+        <v>470</v>
+      </c>
+      <c r="G168" t="s">
+        <v>471</v>
+      </c>
+      <c r="H168" t="s">
+        <v>3</v>
+      </c>
+      <c r="I168" t="s">
+        <v>4</v>
+      </c>
+      <c r="J168">
+        <v>21000</v>
+      </c>
+      <c r="K168" t="s">
+        <v>9</v>
+      </c>
+      <c r="L168">
+        <f>VLOOKUP(K168,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>21000</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D169" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E169" t="s">
+        <v>472</v>
+      </c>
+      <c r="F169" t="s">
+        <v>473</v>
+      </c>
+      <c r="G169" t="s">
+        <v>474</v>
+      </c>
+      <c r="H169" t="s">
+        <v>3</v>
+      </c>
+      <c r="I169" t="s">
+        <v>4</v>
+      </c>
+      <c r="J169">
+        <v>57000</v>
+      </c>
+      <c r="K169" t="s">
+        <v>5</v>
+      </c>
+      <c r="L169">
+        <f>VLOOKUP(K169,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>57000</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D170" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E170" t="s">
+        <v>475</v>
+      </c>
+      <c r="F170" t="s">
+        <v>476</v>
+      </c>
+      <c r="G170" t="s">
+        <v>476</v>
+      </c>
+      <c r="H170" t="s">
+        <v>3</v>
+      </c>
+      <c r="I170" t="s">
+        <v>4</v>
+      </c>
+      <c r="J170">
+        <v>20000</v>
+      </c>
+      <c r="K170" t="s">
+        <v>9</v>
+      </c>
+      <c r="L170">
+        <f>VLOOKUP(K170,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>20000</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D171" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E171" t="s">
+        <v>477</v>
+      </c>
+      <c r="F171" t="s">
+        <v>478</v>
+      </c>
+      <c r="G171" t="s">
+        <v>479</v>
+      </c>
+      <c r="H171" t="s">
+        <v>3</v>
+      </c>
+      <c r="I171" t="s">
+        <v>4</v>
+      </c>
+      <c r="J171">
+        <v>79000</v>
+      </c>
+      <c r="K171" t="s">
+        <v>9</v>
+      </c>
+      <c r="L171">
+        <f>VLOOKUP(K171,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>79000</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D172" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E172" t="s">
+        <v>480</v>
+      </c>
+      <c r="F172" t="s">
+        <v>481</v>
+      </c>
+      <c r="G172" t="s">
+        <v>482</v>
+      </c>
+      <c r="H172" t="s">
+        <v>3</v>
+      </c>
+      <c r="I172" t="s">
+        <v>4</v>
+      </c>
+      <c r="J172">
+        <v>67000</v>
+      </c>
+      <c r="K172" t="s">
+        <v>9</v>
+      </c>
+      <c r="L172">
+        <f>VLOOKUP(K172,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>67000</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D173" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E173" t="s">
+        <v>483</v>
+      </c>
+      <c r="F173" t="s">
+        <v>484</v>
+      </c>
+      <c r="G173" t="s">
+        <v>484</v>
+      </c>
+      <c r="H173" t="s">
+        <v>3</v>
+      </c>
+      <c r="I173" t="s">
+        <v>4</v>
+      </c>
+      <c r="J173">
+        <v>19000</v>
+      </c>
+      <c r="K173" t="s">
+        <v>9</v>
+      </c>
+      <c r="L173">
+        <f>VLOOKUP(K173,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>19000</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D174" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E174" t="s">
+        <v>485</v>
+      </c>
+      <c r="F174" t="s">
+        <v>486</v>
+      </c>
+      <c r="G174" t="s">
+        <v>487</v>
+      </c>
+      <c r="H174" t="s">
+        <v>3</v>
+      </c>
+      <c r="I174" t="s">
+        <v>4</v>
+      </c>
+      <c r="J174">
+        <v>206000</v>
+      </c>
+      <c r="K174" t="s">
+        <v>9</v>
+      </c>
+      <c r="L174">
+        <f>VLOOKUP(K174,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>206000</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D175" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E175" t="s">
+        <v>488</v>
+      </c>
+      <c r="F175" t="s">
+        <v>489</v>
+      </c>
+      <c r="G175" t="s">
+        <v>489</v>
+      </c>
+      <c r="H175" t="s">
+        <v>3</v>
+      </c>
+      <c r="I175" t="s">
+        <v>4</v>
+      </c>
+      <c r="J175">
+        <v>7000</v>
+      </c>
+      <c r="K175" t="s">
+        <v>9</v>
+      </c>
+      <c r="L175">
+        <f>VLOOKUP(K175,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>7000</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D176" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E176" t="s">
+        <v>490</v>
+      </c>
+      <c r="F176" t="s">
+        <v>491</v>
+      </c>
+      <c r="G176" t="s">
+        <v>492</v>
+      </c>
+      <c r="H176" t="s">
+        <v>3</v>
+      </c>
+      <c r="I176" t="s">
+        <v>4</v>
+      </c>
+      <c r="J176">
+        <v>38000</v>
+      </c>
+      <c r="K176" t="s">
+        <v>9</v>
+      </c>
+      <c r="L176">
+        <f>VLOOKUP(K176,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>38000</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D177" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E177" t="s">
+        <v>493</v>
+      </c>
+      <c r="F177" t="s">
+        <v>492</v>
+      </c>
+      <c r="G177" t="s">
+        <v>494</v>
+      </c>
+      <c r="H177" t="s">
+        <v>3</v>
+      </c>
+      <c r="I177" t="s">
+        <v>4</v>
+      </c>
+      <c r="J177">
+        <v>20000</v>
+      </c>
+      <c r="K177" t="s">
+        <v>9</v>
+      </c>
+      <c r="L177">
+        <f>VLOOKUP(K177,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>20000</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D178" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E178" t="s">
+        <v>495</v>
+      </c>
+      <c r="F178" t="s">
+        <v>496</v>
+      </c>
+      <c r="G178" t="s">
+        <v>497</v>
+      </c>
+      <c r="H178" t="s">
+        <v>3</v>
+      </c>
+      <c r="I178" t="s">
+        <v>4</v>
+      </c>
+      <c r="J178">
+        <v>19000</v>
+      </c>
+      <c r="K178" t="s">
+        <v>9</v>
+      </c>
+      <c r="L178">
+        <f>VLOOKUP(K178,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>19000</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D179" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E179" t="s">
+        <v>498</v>
+      </c>
+      <c r="F179" t="s">
+        <v>499</v>
+      </c>
+      <c r="G179" t="s">
+        <v>500</v>
+      </c>
+      <c r="H179" t="s">
+        <v>3</v>
+      </c>
+      <c r="I179" t="s">
+        <v>4</v>
+      </c>
+      <c r="J179">
+        <v>28000</v>
+      </c>
+      <c r="K179" t="s">
+        <v>9</v>
+      </c>
+      <c r="L179">
+        <f>VLOOKUP(K179,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>28000</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D180" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E180" t="s">
+        <v>501</v>
+      </c>
+      <c r="F180" t="s">
+        <v>502</v>
+      </c>
+      <c r="G180" t="s">
+        <v>502</v>
+      </c>
+      <c r="H180" t="s">
+        <v>3</v>
+      </c>
+      <c r="I180" t="s">
+        <v>4</v>
+      </c>
+      <c r="J180">
+        <v>20000</v>
+      </c>
+      <c r="K180" t="s">
+        <v>9</v>
+      </c>
+      <c r="L180">
+        <f>VLOOKUP(K180,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>20000</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D181" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E181" t="s">
+        <v>503</v>
+      </c>
+      <c r="F181" t="s">
+        <v>504</v>
+      </c>
+      <c r="G181" t="s">
+        <v>505</v>
+      </c>
+      <c r="H181" t="s">
+        <v>3</v>
+      </c>
+      <c r="I181" t="s">
+        <v>68</v>
+      </c>
+      <c r="J181">
+        <v>24000</v>
+      </c>
+      <c r="K181" t="s">
+        <v>506</v>
+      </c>
+      <c r="L181">
+        <f>VLOOKUP(K181,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="M181">
+        <v>24000</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D182" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E182" t="s">
+        <v>507</v>
+      </c>
+      <c r="F182" t="s">
+        <v>508</v>
+      </c>
+      <c r="G182" t="s">
+        <v>509</v>
+      </c>
+      <c r="H182" t="s">
+        <v>3</v>
+      </c>
+      <c r="I182" t="s">
+        <v>4</v>
+      </c>
+      <c r="J182">
+        <v>141000</v>
+      </c>
+      <c r="K182" t="s">
+        <v>5</v>
+      </c>
+      <c r="L182">
+        <f>VLOOKUP(K182,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>141000</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D183" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E183" t="s">
+        <v>510</v>
+      </c>
+      <c r="F183" t="s">
+        <v>511</v>
+      </c>
+      <c r="G183" t="s">
+        <v>511</v>
+      </c>
+      <c r="H183" t="s">
+        <v>3</v>
+      </c>
+      <c r="I183" t="s">
+        <v>68</v>
+      </c>
+      <c r="J183">
+        <v>16000</v>
+      </c>
+      <c r="K183" t="s">
+        <v>9</v>
+      </c>
+      <c r="L183">
+        <f>VLOOKUP(K183,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>16000</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D184" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E184" t="s">
+        <v>512</v>
+      </c>
+      <c r="F184" t="s">
+        <v>513</v>
+      </c>
+      <c r="G184" t="s">
+        <v>514</v>
+      </c>
+      <c r="H184" t="s">
+        <v>3</v>
+      </c>
+      <c r="I184" t="s">
+        <v>4</v>
+      </c>
+      <c r="J184">
+        <v>25000</v>
+      </c>
+      <c r="K184" t="s">
+        <v>9</v>
+      </c>
+      <c r="L184">
+        <f>VLOOKUP(K184,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>25000</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D185" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E185" t="s">
+        <v>515</v>
+      </c>
+      <c r="F185" t="s">
+        <v>516</v>
+      </c>
+      <c r="G185" t="s">
+        <v>516</v>
+      </c>
+      <c r="H185" t="s">
+        <v>3</v>
+      </c>
+      <c r="I185" t="s">
+        <v>68</v>
+      </c>
+      <c r="J185">
+        <v>45000</v>
+      </c>
+      <c r="K185" t="s">
+        <v>9</v>
+      </c>
+      <c r="L185">
+        <f>VLOOKUP(K185,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>45000</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D186" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E186" t="s">
+        <v>517</v>
+      </c>
+      <c r="F186" t="s">
+        <v>518</v>
+      </c>
+      <c r="G186" t="s">
+        <v>519</v>
+      </c>
+      <c r="H186" t="s">
+        <v>3</v>
+      </c>
+      <c r="I186" t="s">
+        <v>4</v>
+      </c>
+      <c r="J186">
+        <v>39000</v>
+      </c>
+      <c r="K186" t="s">
+        <v>9</v>
+      </c>
+      <c r="L186">
+        <f>VLOOKUP(K186,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>39000</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D187" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E187" t="s">
+        <v>521</v>
+      </c>
+      <c r="F187" t="s">
+        <v>522</v>
+      </c>
+      <c r="G187" t="s">
+        <v>523</v>
+      </c>
+      <c r="H187" t="s">
+        <v>3</v>
+      </c>
+      <c r="I187" t="s">
+        <v>4</v>
+      </c>
+      <c r="J187">
+        <v>53000</v>
+      </c>
+      <c r="K187" t="s">
+        <v>9</v>
+      </c>
+      <c r="L187">
+        <f>VLOOKUP(K187,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>53000</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D188" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E188" t="s">
+        <v>524</v>
+      </c>
+      <c r="F188" t="s">
+        <v>525</v>
+      </c>
+      <c r="G188" t="s">
+        <v>526</v>
+      </c>
+      <c r="H188" t="s">
+        <v>3</v>
+      </c>
+      <c r="I188" t="s">
+        <v>4</v>
+      </c>
+      <c r="J188">
+        <v>54000</v>
+      </c>
+      <c r="K188" t="s">
+        <v>9</v>
+      </c>
+      <c r="L188">
+        <f>VLOOKUP(K188,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>54000</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D189" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E189" t="s">
+        <v>527</v>
+      </c>
+      <c r="F189" t="s">
+        <v>528</v>
+      </c>
+      <c r="G189" t="s">
+        <v>528</v>
+      </c>
+      <c r="H189" t="s">
+        <v>3</v>
+      </c>
+      <c r="I189" t="s">
+        <v>4</v>
+      </c>
+      <c r="J189">
+        <v>10000</v>
+      </c>
+      <c r="K189" t="s">
+        <v>9</v>
+      </c>
+      <c r="L189">
+        <f>VLOOKUP(K189,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>10000</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D190" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E190" t="s">
+        <v>529</v>
+      </c>
+      <c r="F190" t="s">
+        <v>530</v>
+      </c>
+      <c r="G190" t="s">
+        <v>531</v>
+      </c>
+      <c r="H190" t="s">
+        <v>3</v>
+      </c>
+      <c r="I190" t="s">
+        <v>68</v>
+      </c>
+      <c r="J190">
+        <v>17000</v>
+      </c>
+      <c r="K190" t="s">
+        <v>9</v>
+      </c>
+      <c r="L190">
+        <f>VLOOKUP(K190,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>17000</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D191" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E191" t="s">
+        <v>532</v>
+      </c>
+      <c r="F191" t="s">
+        <v>533</v>
+      </c>
+      <c r="G191" t="s">
+        <v>534</v>
+      </c>
+      <c r="H191" t="s">
+        <v>3</v>
+      </c>
+      <c r="I191" t="s">
+        <v>4</v>
+      </c>
+      <c r="J191">
+        <v>40000</v>
+      </c>
+      <c r="K191" t="s">
+        <v>9</v>
+      </c>
+      <c r="L191">
+        <f>VLOOKUP(K191,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>40000</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D192" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E192" t="s">
+        <v>535</v>
+      </c>
+      <c r="F192" t="s">
+        <v>536</v>
+      </c>
+      <c r="G192" t="s">
+        <v>537</v>
+      </c>
+      <c r="H192" t="s">
+        <v>3</v>
+      </c>
+      <c r="I192" t="s">
+        <v>4</v>
+      </c>
+      <c r="J192">
+        <v>16000</v>
+      </c>
+      <c r="K192" t="s">
+        <v>9</v>
+      </c>
+      <c r="L192">
+        <f>VLOOKUP(K192,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>16000</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D193" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E193" t="s">
+        <v>538</v>
+      </c>
+      <c r="F193" t="s">
+        <v>539</v>
+      </c>
+      <c r="G193" t="s">
+        <v>540</v>
+      </c>
+      <c r="H193" t="s">
+        <v>3</v>
+      </c>
+      <c r="I193" t="s">
+        <v>4</v>
+      </c>
+      <c r="J193">
+        <v>58000</v>
+      </c>
+      <c r="K193" t="s">
+        <v>9</v>
+      </c>
+      <c r="L193">
+        <f>VLOOKUP(K193,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>58000</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D194" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E194" t="s">
+        <v>541</v>
+      </c>
+      <c r="F194" t="s">
+        <v>542</v>
+      </c>
+      <c r="G194" t="s">
+        <v>500</v>
+      </c>
+      <c r="H194" t="s">
+        <v>3</v>
+      </c>
+      <c r="I194" t="s">
+        <v>4</v>
+      </c>
+      <c r="J194">
+        <v>65000</v>
+      </c>
+      <c r="K194" t="s">
+        <v>5</v>
+      </c>
+      <c r="L194">
+        <f>VLOOKUP(K194,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>65000</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D195" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E195" t="s">
+        <v>543</v>
+      </c>
+      <c r="F195" t="s">
+        <v>544</v>
+      </c>
+      <c r="G195" t="s">
+        <v>545</v>
+      </c>
+      <c r="H195" t="s">
+        <v>3</v>
+      </c>
+      <c r="I195" t="s">
+        <v>4</v>
+      </c>
+      <c r="J195">
+        <v>20000</v>
+      </c>
+      <c r="K195" t="s">
+        <v>9</v>
+      </c>
+      <c r="L195">
+        <f>VLOOKUP(K195,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>20000</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D196" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E196" t="s">
+        <v>546</v>
+      </c>
+      <c r="F196" t="s">
+        <v>547</v>
+      </c>
+      <c r="G196" t="s">
+        <v>548</v>
+      </c>
+      <c r="H196" t="s">
+        <v>3</v>
+      </c>
+      <c r="I196" t="s">
+        <v>4</v>
+      </c>
+      <c r="J196">
+        <v>10000</v>
+      </c>
+      <c r="K196" t="s">
+        <v>9</v>
+      </c>
+      <c r="L196">
+        <f>VLOOKUP(K196,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>10000</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D197" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E197" t="s">
+        <v>549</v>
+      </c>
+      <c r="F197" t="s">
+        <v>550</v>
+      </c>
+      <c r="G197" t="s">
+        <v>551</v>
+      </c>
+      <c r="H197" t="s">
+        <v>3</v>
+      </c>
+      <c r="I197" t="s">
+        <v>4</v>
+      </c>
+      <c r="J197">
+        <v>106000</v>
+      </c>
+      <c r="K197" t="s">
+        <v>9</v>
+      </c>
+      <c r="L197">
+        <f>VLOOKUP(K197,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>106000</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D198" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E198" t="s">
+        <v>552</v>
+      </c>
+      <c r="F198" t="s">
+        <v>553</v>
+      </c>
+      <c r="G198" t="s">
+        <v>553</v>
+      </c>
+      <c r="H198" t="s">
+        <v>3</v>
+      </c>
+      <c r="I198" t="s">
+        <v>4</v>
+      </c>
+      <c r="J198">
+        <v>10000</v>
+      </c>
+      <c r="K198" t="s">
+        <v>9</v>
+      </c>
+      <c r="L198">
+        <f>VLOOKUP(K198,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>10000</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D199" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E199" t="s">
+        <v>554</v>
+      </c>
+      <c r="F199" t="s">
+        <v>553</v>
+      </c>
+      <c r="G199" t="s">
+        <v>555</v>
+      </c>
+      <c r="H199" t="s">
+        <v>3</v>
+      </c>
+      <c r="I199" t="s">
+        <v>68</v>
+      </c>
+      <c r="J199">
+        <v>38000</v>
+      </c>
+      <c r="K199" t="s">
+        <v>9</v>
+      </c>
+      <c r="L199">
+        <f>VLOOKUP(K199,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>38000</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D200" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E200" t="s">
+        <v>556</v>
+      </c>
+      <c r="F200" t="s">
+        <v>557</v>
+      </c>
+      <c r="G200" t="s">
+        <v>558</v>
+      </c>
+      <c r="H200" t="s">
+        <v>3</v>
+      </c>
+      <c r="I200" t="s">
+        <v>68</v>
+      </c>
+      <c r="J200">
+        <v>14000</v>
+      </c>
+      <c r="K200" t="s">
+        <v>9</v>
+      </c>
+      <c r="L200">
+        <f>VLOOKUP(K200,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>14000</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D201" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E201" t="s">
+        <v>559</v>
+      </c>
+      <c r="F201" t="s">
+        <v>558</v>
+      </c>
+      <c r="G201" t="s">
+        <v>560</v>
+      </c>
+      <c r="H201" t="s">
+        <v>3</v>
+      </c>
+      <c r="I201" t="s">
+        <v>4</v>
+      </c>
+      <c r="J201">
+        <v>26000</v>
+      </c>
+      <c r="K201" t="s">
+        <v>9</v>
+      </c>
+      <c r="L201">
+        <f>VLOOKUP(K201,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>26000</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D202" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E202" t="s">
+        <v>561</v>
+      </c>
+      <c r="F202" t="s">
+        <v>562</v>
+      </c>
+      <c r="G202" t="s">
+        <v>563</v>
+      </c>
+      <c r="H202" t="s">
+        <v>3</v>
+      </c>
+      <c r="I202" t="s">
+        <v>4</v>
+      </c>
+      <c r="J202">
+        <v>50000</v>
+      </c>
+      <c r="K202" t="s">
+        <v>506</v>
+      </c>
+      <c r="L202">
+        <f>VLOOKUP(K202,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="M202">
+        <v>50000</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D203" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E203" t="s">
+        <v>564</v>
+      </c>
+      <c r="F203" t="s">
+        <v>565</v>
+      </c>
+      <c r="G203" t="s">
+        <v>565</v>
+      </c>
+      <c r="H203" t="s">
+        <v>3</v>
+      </c>
+      <c r="I203" t="s">
+        <v>4</v>
+      </c>
+      <c r="J203">
+        <v>7000</v>
+      </c>
+      <c r="K203" t="s">
+        <v>9</v>
+      </c>
+      <c r="L203">
+        <f>VLOOKUP(K203,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>7000</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D204" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E204" t="s">
+        <v>566</v>
+      </c>
+      <c r="F204" t="s">
+        <v>567</v>
+      </c>
+      <c r="G204" t="s">
+        <v>568</v>
+      </c>
+      <c r="H204" t="s">
+        <v>3</v>
+      </c>
+      <c r="I204" t="s">
+        <v>4</v>
+      </c>
+      <c r="J204">
+        <v>62000</v>
+      </c>
+      <c r="K204" t="s">
+        <v>9</v>
+      </c>
+      <c r="L204">
+        <f>VLOOKUP(K204,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>62000</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D205" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E205" t="s">
+        <v>569</v>
+      </c>
+      <c r="F205" t="s">
+        <v>570</v>
+      </c>
+      <c r="G205" t="s">
+        <v>571</v>
+      </c>
+      <c r="H205" t="s">
+        <v>3</v>
+      </c>
+      <c r="I205" t="s">
+        <v>4</v>
+      </c>
+      <c r="J205">
+        <v>36000</v>
+      </c>
+      <c r="K205" t="s">
+        <v>9</v>
+      </c>
+      <c r="L205">
+        <f>VLOOKUP(K205,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>36000</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D206" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E206" t="s">
+        <v>572</v>
+      </c>
+      <c r="F206" t="s">
+        <v>573</v>
+      </c>
+      <c r="G206" t="s">
+        <v>574</v>
+      </c>
+      <c r="H206" t="s">
+        <v>3</v>
+      </c>
+      <c r="I206" t="s">
+        <v>4</v>
+      </c>
+      <c r="J206">
+        <v>73000</v>
+      </c>
+      <c r="K206" t="s">
+        <v>9</v>
+      </c>
+      <c r="L206">
+        <f>VLOOKUP(K206,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>73000</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D207" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E207" t="s">
+        <v>575</v>
+      </c>
+      <c r="F207" t="s">
+        <v>576</v>
+      </c>
+      <c r="G207" t="s">
+        <v>577</v>
+      </c>
+      <c r="H207" t="s">
+        <v>3</v>
+      </c>
+      <c r="I207" t="s">
+        <v>4</v>
+      </c>
+      <c r="J207">
+        <v>23000</v>
+      </c>
+      <c r="K207" t="s">
+        <v>9</v>
+      </c>
+      <c r="L207">
+        <f>VLOOKUP(K207,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>23000</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D208" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E208" t="s">
+        <v>578</v>
+      </c>
+      <c r="F208" t="s">
+        <v>579</v>
+      </c>
+      <c r="G208" t="s">
+        <v>580</v>
+      </c>
+      <c r="H208" t="s">
+        <v>3</v>
+      </c>
+      <c r="I208" t="s">
+        <v>4</v>
+      </c>
+      <c r="J208">
+        <v>47000</v>
+      </c>
+      <c r="K208" t="s">
+        <v>9</v>
+      </c>
+      <c r="L208">
+        <f>VLOOKUP(K208,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>47000</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D209" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E209" t="s">
+        <v>581</v>
+      </c>
+      <c r="F209" t="s">
+        <v>580</v>
+      </c>
+      <c r="G209" t="s">
+        <v>582</v>
+      </c>
+      <c r="H209" t="s">
+        <v>3</v>
+      </c>
+      <c r="I209" t="s">
+        <v>4</v>
+      </c>
+      <c r="J209">
+        <v>20000</v>
+      </c>
+      <c r="K209" t="s">
+        <v>9</v>
+      </c>
+      <c r="L209">
+        <f>VLOOKUP(K209,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>20000</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D210" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E210" t="s">
+        <v>583</v>
+      </c>
+      <c r="F210" t="s">
+        <v>584</v>
+      </c>
+      <c r="G210" t="s">
+        <v>584</v>
+      </c>
+      <c r="H210" t="s">
+        <v>3</v>
+      </c>
+      <c r="I210" t="s">
+        <v>4</v>
+      </c>
+      <c r="J210">
+        <v>15000</v>
+      </c>
+      <c r="K210" t="s">
+        <v>9</v>
+      </c>
+      <c r="L210">
+        <f>VLOOKUP(K210,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>15000</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D211" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E211" t="s">
+        <v>585</v>
+      </c>
+      <c r="F211" t="s">
+        <v>586</v>
+      </c>
+      <c r="G211" t="s">
+        <v>587</v>
+      </c>
+      <c r="H211" t="s">
+        <v>3</v>
+      </c>
+      <c r="I211" t="s">
+        <v>4</v>
+      </c>
+      <c r="J211">
+        <v>14000</v>
+      </c>
+      <c r="K211" t="s">
+        <v>9</v>
+      </c>
+      <c r="L211">
+        <f>VLOOKUP(K211,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <v>14000</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D212" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E212" t="s">
+        <v>588</v>
+      </c>
+      <c r="F212" t="s">
+        <v>587</v>
+      </c>
+      <c r="G212" t="s">
+        <v>589</v>
+      </c>
+      <c r="H212" t="s">
+        <v>3</v>
+      </c>
+      <c r="I212" t="s">
+        <v>4</v>
+      </c>
+      <c r="J212">
+        <v>14000</v>
+      </c>
+      <c r="K212" t="s">
+        <v>9</v>
+      </c>
+      <c r="L212">
+        <f>VLOOKUP(K212,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>14000</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D213" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E213" t="s">
+        <v>590</v>
+      </c>
+      <c r="F213" t="s">
+        <v>589</v>
+      </c>
+      <c r="G213" t="s">
+        <v>591</v>
+      </c>
+      <c r="H213" t="s">
+        <v>3</v>
+      </c>
+      <c r="I213" t="s">
+        <v>4</v>
+      </c>
+      <c r="J213">
+        <v>14000</v>
+      </c>
+      <c r="K213" t="s">
+        <v>9</v>
+      </c>
+      <c r="L213">
+        <f>VLOOKUP(K213,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>14000</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D214" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E214" t="s">
+        <v>592</v>
+      </c>
+      <c r="F214" t="s">
+        <v>591</v>
+      </c>
+      <c r="G214" t="s">
+        <v>593</v>
+      </c>
+      <c r="H214" t="s">
+        <v>3</v>
+      </c>
+      <c r="I214" t="s">
+        <v>4</v>
+      </c>
+      <c r="J214">
+        <v>10500</v>
+      </c>
+      <c r="K214" t="s">
+        <v>9</v>
+      </c>
+      <c r="L214">
+        <f>VLOOKUP(K214,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>10500</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D215" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E215" t="s">
+        <v>594</v>
+      </c>
+      <c r="F215" t="s">
+        <v>595</v>
+      </c>
+      <c r="G215" t="s">
+        <v>596</v>
+      </c>
+      <c r="H215" t="s">
+        <v>3</v>
+      </c>
+      <c r="I215" t="s">
+        <v>4</v>
+      </c>
+      <c r="J215">
+        <v>70000</v>
+      </c>
+      <c r="K215" t="s">
+        <v>5</v>
+      </c>
+      <c r="L215">
+        <f>VLOOKUP(K215,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M215">
+        <v>70000</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D216" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E216" t="s">
+        <v>597</v>
+      </c>
+      <c r="F216" t="s">
+        <v>596</v>
+      </c>
+      <c r="G216" t="s">
+        <v>598</v>
+      </c>
+      <c r="H216" t="s">
+        <v>3</v>
+      </c>
+      <c r="I216" t="s">
+        <v>4</v>
+      </c>
+      <c r="J216">
+        <v>14000</v>
+      </c>
+      <c r="K216" t="s">
+        <v>9</v>
+      </c>
+      <c r="L216">
+        <f>VLOOKUP(K216,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>14000</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D217" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E217" t="s">
+        <v>599</v>
+      </c>
+      <c r="F217" t="s">
+        <v>598</v>
+      </c>
+      <c r="G217" t="s">
+        <v>600</v>
+      </c>
+      <c r="H217" t="s">
+        <v>3</v>
+      </c>
+      <c r="I217" t="s">
+        <v>4</v>
+      </c>
+      <c r="J217">
+        <v>48000</v>
+      </c>
+      <c r="K217" t="s">
+        <v>9</v>
+      </c>
+      <c r="L217">
+        <f>VLOOKUP(K217,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>48000</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D218" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E218" t="s">
+        <v>601</v>
+      </c>
+      <c r="F218" t="s">
+        <v>602</v>
+      </c>
+      <c r="G218" t="s">
+        <v>602</v>
+      </c>
+      <c r="H218" t="s">
+        <v>3</v>
+      </c>
+      <c r="I218" t="s">
+        <v>4</v>
+      </c>
+      <c r="J218">
+        <v>7000</v>
+      </c>
+      <c r="K218" t="s">
+        <v>9</v>
+      </c>
+      <c r="L218">
+        <f>VLOOKUP(K218,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>7000</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D219" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E219" t="s">
+        <v>603</v>
+      </c>
+      <c r="F219" t="s">
+        <v>604</v>
+      </c>
+      <c r="G219" t="s">
+        <v>605</v>
+      </c>
+      <c r="H219" t="s">
+        <v>3</v>
+      </c>
+      <c r="I219" t="s">
+        <v>4</v>
+      </c>
+      <c r="J219">
+        <v>55000</v>
+      </c>
+      <c r="K219" t="s">
+        <v>9</v>
+      </c>
+      <c r="L219">
+        <f>VLOOKUP(K219,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>55000</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D220" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E220" t="s">
+        <v>606</v>
+      </c>
+      <c r="F220" t="s">
+        <v>607</v>
+      </c>
+      <c r="G220" t="s">
+        <v>608</v>
+      </c>
+      <c r="H220" t="s">
+        <v>3</v>
+      </c>
+      <c r="I220" t="s">
+        <v>4</v>
+      </c>
+      <c r="J220">
+        <v>22000</v>
+      </c>
+      <c r="K220" t="s">
+        <v>9</v>
+      </c>
+      <c r="L220">
+        <f>VLOOKUP(K220,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>22000</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D221" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E221" t="s">
+        <v>609</v>
+      </c>
+      <c r="F221" t="s">
+        <v>610</v>
+      </c>
+      <c r="G221" t="s">
+        <v>610</v>
+      </c>
+      <c r="H221" t="s">
+        <v>3</v>
+      </c>
+      <c r="I221" t="s">
+        <v>68</v>
+      </c>
+      <c r="J221">
+        <v>14000</v>
+      </c>
+      <c r="K221" t="s">
+        <v>9</v>
+      </c>
+      <c r="L221">
+        <f>VLOOKUP(K221,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>14000</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D222" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E222" t="s">
+        <v>611</v>
+      </c>
+      <c r="F222" t="s">
+        <v>487</v>
+      </c>
+      <c r="G222" t="s">
+        <v>487</v>
+      </c>
+      <c r="H222" t="s">
+        <v>3</v>
+      </c>
+      <c r="I222" t="s">
+        <v>4</v>
+      </c>
+      <c r="J222">
+        <v>6000</v>
+      </c>
+      <c r="K222" t="s">
+        <v>9</v>
+      </c>
+      <c r="L222">
+        <f>VLOOKUP(K222,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>6000</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D223" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E223" t="s">
+        <v>612</v>
+      </c>
+      <c r="F223" t="s">
+        <v>613</v>
+      </c>
+      <c r="G223" t="s">
+        <v>614</v>
+      </c>
+      <c r="H223" t="s">
+        <v>3</v>
+      </c>
+      <c r="I223" t="s">
+        <v>4</v>
+      </c>
+      <c r="J223">
+        <v>26500</v>
+      </c>
+      <c r="K223" t="s">
+        <v>5</v>
+      </c>
+      <c r="L223">
+        <f>VLOOKUP(K223,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M223">
+        <v>26500</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D224" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E224" t="s">
+        <v>615</v>
+      </c>
+      <c r="F224" t="s">
+        <v>614</v>
+      </c>
+      <c r="G224" t="s">
+        <v>614</v>
+      </c>
+      <c r="H224" t="s">
+        <v>3</v>
+      </c>
+      <c r="I224" t="s">
+        <v>4</v>
+      </c>
+      <c r="J224">
+        <v>7000</v>
+      </c>
+      <c r="K224" t="s">
+        <v>9</v>
+      </c>
+      <c r="L224">
+        <f>VLOOKUP(K224,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>7000</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D225" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E225" t="s">
+        <v>616</v>
+      </c>
+      <c r="F225" t="s">
+        <v>617</v>
+      </c>
+      <c r="G225" t="s">
+        <v>618</v>
+      </c>
+      <c r="H225" t="s">
+        <v>3</v>
+      </c>
+      <c r="I225" t="s">
+        <v>4</v>
+      </c>
+      <c r="J225">
+        <v>80000</v>
+      </c>
+      <c r="K225" t="s">
+        <v>9</v>
+      </c>
+      <c r="L225">
+        <f>VLOOKUP(K225,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>80000</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D226" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E226" t="s">
+        <v>619</v>
+      </c>
+      <c r="F226" t="s">
+        <v>620</v>
+      </c>
+      <c r="G226" t="s">
+        <v>621</v>
+      </c>
+      <c r="H226" t="s">
+        <v>3</v>
+      </c>
+      <c r="I226" t="s">
+        <v>4</v>
+      </c>
+      <c r="J226">
+        <v>173000</v>
+      </c>
+      <c r="K226" t="s">
+        <v>5</v>
+      </c>
+      <c r="L226">
+        <f>VLOOKUP(K226,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M226">
+        <v>173000</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D227" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E227" t="s">
+        <v>622</v>
+      </c>
+      <c r="F227" t="s">
+        <v>623</v>
+      </c>
+      <c r="G227" t="s">
+        <v>624</v>
+      </c>
+      <c r="H227" t="s">
+        <v>3</v>
+      </c>
+      <c r="I227" t="s">
+        <v>4</v>
+      </c>
+      <c r="J227">
+        <v>62000</v>
+      </c>
+      <c r="K227" t="s">
+        <v>9</v>
+      </c>
+      <c r="L227">
+        <f>VLOOKUP(K227,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>62000</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D228" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E228" t="s">
+        <v>625</v>
+      </c>
+      <c r="F228" t="s">
+        <v>626</v>
+      </c>
+      <c r="G228" t="s">
+        <v>627</v>
+      </c>
+      <c r="H228" t="s">
+        <v>3</v>
+      </c>
+      <c r="I228" t="s">
+        <v>4</v>
+      </c>
+      <c r="J228">
+        <v>77000</v>
+      </c>
+      <c r="K228" t="s">
+        <v>9</v>
+      </c>
+      <c r="L228">
+        <f>VLOOKUP(K228,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>77000</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D229" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E229" t="s">
+        <v>628</v>
+      </c>
+      <c r="F229" t="s">
+        <v>629</v>
+      </c>
+      <c r="G229" t="s">
+        <v>630</v>
+      </c>
+      <c r="H229" t="s">
+        <v>3</v>
+      </c>
+      <c r="I229" t="s">
+        <v>4</v>
+      </c>
+      <c r="J229">
+        <v>70000</v>
+      </c>
+      <c r="K229" t="s">
+        <v>9</v>
+      </c>
+      <c r="L229">
+        <f>VLOOKUP(K229,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>70000</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D230" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E230" t="s">
+        <v>631</v>
+      </c>
+      <c r="F230" t="s">
+        <v>632</v>
+      </c>
+      <c r="G230" t="s">
+        <v>633</v>
+      </c>
+      <c r="H230" t="s">
+        <v>3</v>
+      </c>
+      <c r="I230" t="s">
+        <v>4</v>
+      </c>
+      <c r="J230">
+        <v>18000</v>
+      </c>
+      <c r="K230" t="s">
+        <v>9</v>
+      </c>
+      <c r="L230">
+        <f>VLOOKUP(K230,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>18000</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D231" s="1">
+        <v>45781</v>
+      </c>
+      <c r="E231" t="s">
+        <v>634</v>
+      </c>
+      <c r="F231" t="s">
+        <v>635</v>
+      </c>
+      <c r="G231" t="s">
+        <v>636</v>
+      </c>
+      <c r="H231" t="s">
+        <v>3</v>
+      </c>
+      <c r="I231" t="s">
+        <v>33</v>
+      </c>
+      <c r="J231">
+        <v>34000</v>
+      </c>
+      <c r="K231" t="s">
+        <v>29</v>
+      </c>
+      <c r="L231">
+        <f>VLOOKUP(K231,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M231">
+        <v>34000</v>
+      </c>
+      <c r="N231">
         <v>0</v>
       </c>
     </row>
@@ -1637,12 +10631,13 @@
   <dimension ref="I5:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G12:G13"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="9:12" x14ac:dyDescent="0.25">
@@ -1692,7 +10687,7 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>506</v>
       </c>
       <c r="K8" t="s">
         <v>91</v>

--- a/laporan.xlsx
+++ b/laporan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kasir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ADB6E1-2306-465B-AAB9-7A6CC15A852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE4DA64-6889-44FF-8AD7-1FE8BE490FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C664331B-736D-4FFC-B4E4-28891A970B64}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="1085">
   <si>
     <t>CS/63/250501/0001</t>
   </si>
@@ -3154,6 +3154,144 @@
   </si>
   <si>
     <t>28 Mei 2025, 20:44</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0001</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 11:24</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 11:25</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0002</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 12:40</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 12:43</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0003</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 14:21</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 14:23</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0004</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 16:07</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 16:08</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0005</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 17:39</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 18:45</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0006</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 17:47</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0007</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 18:54</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 18:56</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0008</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 19:01</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 19:52</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0009</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 19:26</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0010</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 19:27</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 19:28</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0011</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 19:29</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 19:33</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0012</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 20:06</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 20:08</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0013</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 20:13</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 20:15</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0014</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 20:19</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 20:20</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0015</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 20:37</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 21:38</t>
+  </si>
+  <si>
+    <t>CS/63/250529/0016</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 21:04</t>
+  </si>
+  <si>
+    <t>29 Mei 2025, 21:05</t>
   </si>
 </sst>
 </file>
@@ -3529,10 +3667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77660A0B-93F9-43A9-821D-52A7AEE2A312}">
-  <dimension ref="C2:N374"/>
+  <dimension ref="C2:N393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="K366" sqref="K366"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="D378" sqref="D378:N393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16843,6 +16981,609 @@
         <v>177000</v>
       </c>
       <c r="N374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="L375" t="e">
+        <f>VLOOKUP(K375,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="L376" t="e">
+        <f>VLOOKUP(K376,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="L377" t="e">
+        <f>VLOOKUP(K377,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D378" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E378" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F378" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G378" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H378" t="s">
+        <v>3</v>
+      </c>
+      <c r="I378" t="s">
+        <v>4</v>
+      </c>
+      <c r="J378">
+        <v>76000</v>
+      </c>
+      <c r="K378" t="s">
+        <v>9</v>
+      </c>
+      <c r="L378">
+        <f>VLOOKUP(K378,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M378">
+        <v>76000</v>
+      </c>
+      <c r="N378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D379" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E379" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G379" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H379" t="s">
+        <v>3</v>
+      </c>
+      <c r="I379" t="s">
+        <v>4</v>
+      </c>
+      <c r="J379">
+        <v>157000</v>
+      </c>
+      <c r="K379" t="s">
+        <v>5</v>
+      </c>
+      <c r="L379">
+        <f>VLOOKUP(K379,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M379">
+        <v>157000</v>
+      </c>
+      <c r="N379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D380" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E380" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F380" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G380" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H380" t="s">
+        <v>3</v>
+      </c>
+      <c r="I380" t="s">
+        <v>4</v>
+      </c>
+      <c r="J380">
+        <v>109000</v>
+      </c>
+      <c r="K380" t="s">
+        <v>5</v>
+      </c>
+      <c r="L380">
+        <f>VLOOKUP(K380,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M380">
+        <v>109000</v>
+      </c>
+      <c r="N380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D381" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E381" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G381" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H381" t="s">
+        <v>3</v>
+      </c>
+      <c r="I381" t="s">
+        <v>4</v>
+      </c>
+      <c r="J381">
+        <v>98000</v>
+      </c>
+      <c r="K381" t="s">
+        <v>5</v>
+      </c>
+      <c r="L381">
+        <f>VLOOKUP(K381,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M381">
+        <v>98000</v>
+      </c>
+      <c r="N381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D382" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E382" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F382" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G382" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H382" t="s">
+        <v>3</v>
+      </c>
+      <c r="I382" t="s">
+        <v>33</v>
+      </c>
+      <c r="J382">
+        <v>57000</v>
+      </c>
+      <c r="K382" t="s">
+        <v>29</v>
+      </c>
+      <c r="L382">
+        <f>VLOOKUP(K382,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M382">
+        <v>57000</v>
+      </c>
+      <c r="N382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D383" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E383" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F383" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G383" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H383" t="s">
+        <v>3</v>
+      </c>
+      <c r="I383" t="s">
+        <v>4</v>
+      </c>
+      <c r="J383">
+        <v>365000</v>
+      </c>
+      <c r="K383" t="s">
+        <v>5</v>
+      </c>
+      <c r="L383">
+        <f>VLOOKUP(K383,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M383">
+        <v>365000</v>
+      </c>
+      <c r="N383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D384" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E384" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F384" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H384" t="s">
+        <v>3</v>
+      </c>
+      <c r="I384" t="s">
+        <v>4</v>
+      </c>
+      <c r="J384">
+        <v>160000</v>
+      </c>
+      <c r="K384" t="s">
+        <v>5</v>
+      </c>
+      <c r="L384">
+        <f>VLOOKUP(K384,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M384">
+        <v>160000</v>
+      </c>
+      <c r="N384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D385" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F385" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G385" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H385" t="s">
+        <v>3</v>
+      </c>
+      <c r="I385" t="s">
+        <v>33</v>
+      </c>
+      <c r="J385">
+        <v>55000</v>
+      </c>
+      <c r="K385" t="s">
+        <v>691</v>
+      </c>
+      <c r="L385">
+        <f>VLOOKUP(K385,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="M385">
+        <v>55000</v>
+      </c>
+      <c r="N385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D386" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E386" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F386" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G386" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H386" t="s">
+        <v>3</v>
+      </c>
+      <c r="I386" t="s">
+        <v>4</v>
+      </c>
+      <c r="J386">
+        <v>59000</v>
+      </c>
+      <c r="K386" t="s">
+        <v>9</v>
+      </c>
+      <c r="L386">
+        <f>VLOOKUP(K386,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M386">
+        <v>59000</v>
+      </c>
+      <c r="N386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D387" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E387" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F387" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G387" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H387" t="s">
+        <v>3</v>
+      </c>
+      <c r="I387" t="s">
+        <v>4</v>
+      </c>
+      <c r="J387">
+        <v>52000</v>
+      </c>
+      <c r="K387" t="s">
+        <v>9</v>
+      </c>
+      <c r="L387">
+        <f>VLOOKUP(K387,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M387">
+        <v>52000</v>
+      </c>
+      <c r="N387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D388" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E388" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F388" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G388" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H388" t="s">
+        <v>3</v>
+      </c>
+      <c r="I388" t="s">
+        <v>4</v>
+      </c>
+      <c r="J388">
+        <v>70000</v>
+      </c>
+      <c r="K388" t="s">
+        <v>5</v>
+      </c>
+      <c r="L388">
+        <f>VLOOKUP(K388,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M388">
+        <v>70000</v>
+      </c>
+      <c r="N388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D389" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F389" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G389" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H389" t="s">
+        <v>3</v>
+      </c>
+      <c r="I389" t="s">
+        <v>4</v>
+      </c>
+      <c r="J389">
+        <v>37000</v>
+      </c>
+      <c r="K389" t="s">
+        <v>9</v>
+      </c>
+      <c r="L389">
+        <f>VLOOKUP(K389,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M389">
+        <v>37000</v>
+      </c>
+      <c r="N389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D390" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E390" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F390" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G390" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H390" t="s">
+        <v>3</v>
+      </c>
+      <c r="I390" t="s">
+        <v>4</v>
+      </c>
+      <c r="J390">
+        <v>41000</v>
+      </c>
+      <c r="K390" t="s">
+        <v>9</v>
+      </c>
+      <c r="L390">
+        <f>VLOOKUP(K390,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M390">
+        <v>41000</v>
+      </c>
+      <c r="N390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D391" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E391" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F391" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G391" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H391" t="s">
+        <v>3</v>
+      </c>
+      <c r="I391" t="s">
+        <v>4</v>
+      </c>
+      <c r="J391">
+        <v>85000</v>
+      </c>
+      <c r="K391" t="s">
+        <v>9</v>
+      </c>
+      <c r="L391">
+        <f>VLOOKUP(K391,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M391">
+        <v>85000</v>
+      </c>
+      <c r="N391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D392" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E392" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F392" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G392" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H392" t="s">
+        <v>3</v>
+      </c>
+      <c r="I392" t="s">
+        <v>4</v>
+      </c>
+      <c r="J392">
+        <v>403000</v>
+      </c>
+      <c r="K392" t="s">
+        <v>746</v>
+      </c>
+      <c r="L392">
+        <f>VLOOKUP(K392,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M392">
+        <v>403000</v>
+      </c>
+      <c r="N392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D393" s="1">
+        <v>45806</v>
+      </c>
+      <c r="E393" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F393" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G393" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H393" t="s">
+        <v>3</v>
+      </c>
+      <c r="I393" t="s">
+        <v>4</v>
+      </c>
+      <c r="J393">
+        <v>58000</v>
+      </c>
+      <c r="K393" t="s">
+        <v>9</v>
+      </c>
+      <c r="L393">
+        <f>VLOOKUP(K393,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M393">
+        <v>58000</v>
+      </c>
+      <c r="N393">
         <v>0</v>
       </c>
     </row>

--- a/laporan.xlsx
+++ b/laporan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kasir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE4DA64-6889-44FF-8AD7-1FE8BE490FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64274AC-1BA5-43CB-9E7B-0EF7632548A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C664331B-736D-4FFC-B4E4-28891A970B64}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="1139">
   <si>
     <t>CS/63/250501/0001</t>
   </si>
@@ -3292,6 +3292,168 @@
   </si>
   <si>
     <t>29 Mei 2025, 21:05</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0001</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 13:32</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 13:34</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0002</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 16:20</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0003</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 16:39</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0004</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 17:24</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 17:25</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0005</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 19:08</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 19:09</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0006</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 19:31</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 19:32</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0007</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 19:41</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 19:44</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0008</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 19:46</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0009</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 19:50</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 21:42</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0010</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 19:53</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0011</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 19:55</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 19:57</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0012</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 20:11</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 20:12</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0013</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 20:13</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0014</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 20:16</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 20:17</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0015</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 20:18</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 20:19</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0016</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 20:26</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 22:07</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0017</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 20:46</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 20:47</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0018</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 21:17</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 22:08</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0019</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 21:27</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 21:28</t>
+  </si>
+  <si>
+    <t>CS/63/250530/0020</t>
+  </si>
+  <si>
+    <t>30 Mei 2025, 21:29</t>
   </si>
 </sst>
 </file>
@@ -3667,10 +3829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77660A0B-93F9-43A9-821D-52A7AEE2A312}">
-  <dimension ref="C2:N393"/>
+  <dimension ref="C2:N414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="D378" sqref="D378:N393"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="K397" sqref="K397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17584,6 +17746,735 @@
         <v>58000</v>
       </c>
       <c r="N393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="L394" t="e">
+        <f>VLOOKUP(K394,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D395" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E395" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F395" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G395" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H395" t="s">
+        <v>3</v>
+      </c>
+      <c r="I395" t="s">
+        <v>4</v>
+      </c>
+      <c r="J395">
+        <v>53000</v>
+      </c>
+      <c r="K395" t="s">
+        <v>5</v>
+      </c>
+      <c r="L395">
+        <f>VLOOKUP(K395,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M395">
+        <v>53000</v>
+      </c>
+      <c r="N395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D396" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E396" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F396" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G396" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H396" t="s">
+        <v>3</v>
+      </c>
+      <c r="I396" t="s">
+        <v>4</v>
+      </c>
+      <c r="J396">
+        <v>49000</v>
+      </c>
+      <c r="K396" t="s">
+        <v>9</v>
+      </c>
+      <c r="L396">
+        <f>VLOOKUP(K396,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M396">
+        <v>49000</v>
+      </c>
+      <c r="N396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D397" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E397" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F397" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G397" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H397" t="s">
+        <v>3</v>
+      </c>
+      <c r="I397" t="s">
+        <v>68</v>
+      </c>
+      <c r="J397">
+        <v>10000</v>
+      </c>
+      <c r="K397" t="s">
+        <v>9</v>
+      </c>
+      <c r="L397">
+        <f>VLOOKUP(K397,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M397">
+        <v>10000</v>
+      </c>
+      <c r="N397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D398" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E398" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F398" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G398" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H398" t="s">
+        <v>3</v>
+      </c>
+      <c r="I398" t="s">
+        <v>4</v>
+      </c>
+      <c r="J398">
+        <v>19000</v>
+      </c>
+      <c r="K398" t="s">
+        <v>5</v>
+      </c>
+      <c r="L398">
+        <f>VLOOKUP(K398,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M398">
+        <v>19000</v>
+      </c>
+      <c r="N398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D399" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E399" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F399" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G399" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H399" t="s">
+        <v>3</v>
+      </c>
+      <c r="I399" t="s">
+        <v>4</v>
+      </c>
+      <c r="J399">
+        <v>74000</v>
+      </c>
+      <c r="K399" t="s">
+        <v>5</v>
+      </c>
+      <c r="L399">
+        <f>VLOOKUP(K399,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M399">
+        <v>74000</v>
+      </c>
+      <c r="N399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D400" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E400" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F400" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G400" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H400" t="s">
+        <v>3</v>
+      </c>
+      <c r="I400" t="s">
+        <v>4</v>
+      </c>
+      <c r="J400">
+        <v>81000</v>
+      </c>
+      <c r="K400" t="s">
+        <v>5</v>
+      </c>
+      <c r="L400">
+        <f>VLOOKUP(K400,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M400">
+        <v>81000</v>
+      </c>
+      <c r="N400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D401" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E401" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F401" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G401" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H401" t="s">
+        <v>3</v>
+      </c>
+      <c r="I401" t="s">
+        <v>4</v>
+      </c>
+      <c r="J401">
+        <v>118000</v>
+      </c>
+      <c r="K401" t="s">
+        <v>5</v>
+      </c>
+      <c r="L401">
+        <f>VLOOKUP(K401,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M401">
+        <v>118000</v>
+      </c>
+      <c r="N401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D402" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E402" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F402" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G402" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H402" t="s">
+        <v>3</v>
+      </c>
+      <c r="I402" t="s">
+        <v>4</v>
+      </c>
+      <c r="J402">
+        <v>102000</v>
+      </c>
+      <c r="K402" t="s">
+        <v>9</v>
+      </c>
+      <c r="L402">
+        <f>VLOOKUP(K402,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M402">
+        <v>102000</v>
+      </c>
+      <c r="N402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D403" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F403" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G403" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H403" t="s">
+        <v>3</v>
+      </c>
+      <c r="I403" t="s">
+        <v>4</v>
+      </c>
+      <c r="J403">
+        <v>144000</v>
+      </c>
+      <c r="K403" t="s">
+        <v>34</v>
+      </c>
+      <c r="L403">
+        <f>VLOOKUP(K403,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="M403">
+        <v>144000</v>
+      </c>
+      <c r="N403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D404" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G404" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H404" t="s">
+        <v>3</v>
+      </c>
+      <c r="I404" t="s">
+        <v>68</v>
+      </c>
+      <c r="J404">
+        <v>8000</v>
+      </c>
+      <c r="K404" t="s">
+        <v>9</v>
+      </c>
+      <c r="L404">
+        <f>VLOOKUP(K404,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M404">
+        <v>8000</v>
+      </c>
+      <c r="N404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D405" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F405" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H405" t="s">
+        <v>3</v>
+      </c>
+      <c r="I405" t="s">
+        <v>4</v>
+      </c>
+      <c r="J405">
+        <v>83000</v>
+      </c>
+      <c r="K405" t="s">
+        <v>9</v>
+      </c>
+      <c r="L405">
+        <f>VLOOKUP(K405,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M405">
+        <v>83000</v>
+      </c>
+      <c r="N405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D406" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F406" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G406" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H406" t="s">
+        <v>3</v>
+      </c>
+      <c r="I406" t="s">
+        <v>4</v>
+      </c>
+      <c r="J406">
+        <v>104000</v>
+      </c>
+      <c r="K406" t="s">
+        <v>5</v>
+      </c>
+      <c r="L406">
+        <f>VLOOKUP(K406,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M406">
+        <v>104000</v>
+      </c>
+      <c r="N406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D407" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F407" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G407" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H407" t="s">
+        <v>3</v>
+      </c>
+      <c r="I407" t="s">
+        <v>4</v>
+      </c>
+      <c r="J407">
+        <v>25000</v>
+      </c>
+      <c r="K407" t="s">
+        <v>5</v>
+      </c>
+      <c r="L407">
+        <f>VLOOKUP(K407,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M407">
+        <v>25000</v>
+      </c>
+      <c r="N407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D408" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F408" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G408" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H408" t="s">
+        <v>3</v>
+      </c>
+      <c r="I408" t="s">
+        <v>4</v>
+      </c>
+      <c r="J408">
+        <v>44000</v>
+      </c>
+      <c r="K408" t="s">
+        <v>9</v>
+      </c>
+      <c r="L408">
+        <f>VLOOKUP(K408,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M408">
+        <v>44000</v>
+      </c>
+      <c r="N408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D409" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F409" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G409" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H409" t="s">
+        <v>3</v>
+      </c>
+      <c r="I409" t="s">
+        <v>4</v>
+      </c>
+      <c r="J409">
+        <v>153000</v>
+      </c>
+      <c r="K409" t="s">
+        <v>9</v>
+      </c>
+      <c r="L409">
+        <f>VLOOKUP(K409,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M409">
+        <v>153000</v>
+      </c>
+      <c r="N409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D410" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F410" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G410" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H410" t="s">
+        <v>3</v>
+      </c>
+      <c r="I410" t="s">
+        <v>4</v>
+      </c>
+      <c r="J410">
+        <v>78000</v>
+      </c>
+      <c r="K410" t="s">
+        <v>9</v>
+      </c>
+      <c r="L410">
+        <f>VLOOKUP(K410,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M410">
+        <v>78000</v>
+      </c>
+      <c r="N410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D411" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F411" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G411" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H411" t="s">
+        <v>3</v>
+      </c>
+      <c r="I411" t="s">
+        <v>4</v>
+      </c>
+      <c r="J411">
+        <v>77000</v>
+      </c>
+      <c r="K411" t="s">
+        <v>9</v>
+      </c>
+      <c r="L411">
+        <f>VLOOKUP(K411,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M411">
+        <v>77000</v>
+      </c>
+      <c r="N411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D412" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F412" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G412" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H412" t="s">
+        <v>3</v>
+      </c>
+      <c r="I412" t="s">
+        <v>4</v>
+      </c>
+      <c r="J412">
+        <v>204000</v>
+      </c>
+      <c r="K412" t="s">
+        <v>9</v>
+      </c>
+      <c r="L412">
+        <f>VLOOKUP(K412,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M412">
+        <v>204000</v>
+      </c>
+      <c r="N412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D413" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F413" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G413" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H413" t="s">
+        <v>3</v>
+      </c>
+      <c r="I413" t="s">
+        <v>4</v>
+      </c>
+      <c r="J413">
+        <v>55000</v>
+      </c>
+      <c r="K413" t="s">
+        <v>5</v>
+      </c>
+      <c r="L413">
+        <f>VLOOKUP(K413,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M413">
+        <v>55000</v>
+      </c>
+      <c r="N413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D414" s="1">
+        <v>45807</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F414" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G414" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H414" t="s">
+        <v>3</v>
+      </c>
+      <c r="I414" t="s">
+        <v>4</v>
+      </c>
+      <c r="J414">
+        <v>60000</v>
+      </c>
+      <c r="K414" t="s">
+        <v>9</v>
+      </c>
+      <c r="L414">
+        <f>VLOOKUP(K414,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M414">
+        <v>60000</v>
+      </c>
+      <c r="N414">
         <v>0</v>
       </c>
     </row>

--- a/laporan.xlsx
+++ b/laporan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kasir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64274AC-1BA5-43CB-9E7B-0EF7632548A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFBABA6-8504-48FD-81FC-062BBD38815C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C664331B-736D-4FFC-B4E4-28891A970B64}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="1239">
   <si>
     <t>CS/63/250501/0001</t>
   </si>
@@ -3454,6 +3454,306 @@
   </si>
   <si>
     <t>30 Mei 2025, 21:29</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0001</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 11:26</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0002</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 12:27</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 16:14</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0003</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 13:32</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 14:22</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0004</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 13:50</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 13:58</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0005</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 14:02</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 14:04</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0006</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 15:40</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0007</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 15:51</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 15:55</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0008</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 16:41</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 21:27</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0009</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 16:57</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0010</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 16:59</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 17:57</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0011</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 18:33</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 18:36</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0012</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 18:44</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 18:45</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0013</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 18:46</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 18:48</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0014</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 18:49</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 18:51</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0015</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:07</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:11</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0016</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:14</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:17</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0017</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:28</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:30</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0018</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:33</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:35</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0019</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:38</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:39</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0020</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:40</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0021</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:41</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0022</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:42</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0023</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:45</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0024</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:56</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:58</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0025</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 19:59</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:40</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0026</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:01</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:03</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0027</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:04</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0028</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:06</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0029</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:07</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:09</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0030</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:11</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 21:45</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0031</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:17</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:18</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0032</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:27</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:28</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0033</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:29</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 22:28</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0034</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:37</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 21:44</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0035</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:49</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:50</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0036</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:51</t>
+  </si>
+  <si>
+    <t>CS/63/250531/0037</t>
+  </si>
+  <si>
+    <t>31 Mei 2025, 20:52</t>
   </si>
 </sst>
 </file>
@@ -3829,10 +4129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77660A0B-93F9-43A9-821D-52A7AEE2A312}">
-  <dimension ref="C2:N414"/>
+  <dimension ref="C2:N453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="K397" sqref="K397"/>
+    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="K425" sqref="K425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18475,6 +18775,1356 @@
         <v>60000</v>
       </c>
       <c r="N414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="L415" t="e">
+        <f>VLOOKUP(K415,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="L416" t="e">
+        <f>VLOOKUP(K416,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D417" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F417" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G417" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H417" t="s">
+        <v>3</v>
+      </c>
+      <c r="I417" t="s">
+        <v>4</v>
+      </c>
+      <c r="J417">
+        <v>97000</v>
+      </c>
+      <c r="K417" t="s">
+        <v>9</v>
+      </c>
+      <c r="L417">
+        <f>VLOOKUP(K417,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M417">
+        <v>97000</v>
+      </c>
+      <c r="N417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D418" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F418" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G418" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H418" t="s">
+        <v>3</v>
+      </c>
+      <c r="I418" t="s">
+        <v>4</v>
+      </c>
+      <c r="J418">
+        <v>40000</v>
+      </c>
+      <c r="K418" t="s">
+        <v>9</v>
+      </c>
+      <c r="L418">
+        <f>VLOOKUP(K418,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M418">
+        <v>40000</v>
+      </c>
+      <c r="N418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D419" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F419" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G419" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H419" t="s">
+        <v>3</v>
+      </c>
+      <c r="I419" t="s">
+        <v>4</v>
+      </c>
+      <c r="J419">
+        <v>62000</v>
+      </c>
+      <c r="K419" t="s">
+        <v>5</v>
+      </c>
+      <c r="L419">
+        <f>VLOOKUP(K419,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M419">
+        <v>62000</v>
+      </c>
+      <c r="N419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D420" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F420" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G420" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H420" t="s">
+        <v>3</v>
+      </c>
+      <c r="I420" t="s">
+        <v>33</v>
+      </c>
+      <c r="J420">
+        <v>34000</v>
+      </c>
+      <c r="K420" t="s">
+        <v>29</v>
+      </c>
+      <c r="L420">
+        <f>VLOOKUP(K420,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M420">
+        <v>34000</v>
+      </c>
+      <c r="N420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D421" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F421" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G421" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H421" t="s">
+        <v>3</v>
+      </c>
+      <c r="I421" t="s">
+        <v>4</v>
+      </c>
+      <c r="J421">
+        <v>126500</v>
+      </c>
+      <c r="K421" t="s">
+        <v>9</v>
+      </c>
+      <c r="L421">
+        <f>VLOOKUP(K421,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M421">
+        <v>126500</v>
+      </c>
+      <c r="N421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D422" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F422" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G422" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H422" t="s">
+        <v>3</v>
+      </c>
+      <c r="I422" t="s">
+        <v>68</v>
+      </c>
+      <c r="J422">
+        <v>7000</v>
+      </c>
+      <c r="K422" t="s">
+        <v>9</v>
+      </c>
+      <c r="L422">
+        <f>VLOOKUP(K422,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M422">
+        <v>7000</v>
+      </c>
+      <c r="N422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D423" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F423" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G423" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H423" t="s">
+        <v>3</v>
+      </c>
+      <c r="I423" t="s">
+        <v>68</v>
+      </c>
+      <c r="J423">
+        <v>94000</v>
+      </c>
+      <c r="K423" t="s">
+        <v>5</v>
+      </c>
+      <c r="L423">
+        <f>VLOOKUP(K423,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M423">
+        <v>94000</v>
+      </c>
+      <c r="N423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D424" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G424" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H424" t="s">
+        <v>3</v>
+      </c>
+      <c r="I424" t="s">
+        <v>4</v>
+      </c>
+      <c r="J424">
+        <v>7000</v>
+      </c>
+      <c r="K424" t="s">
+        <v>746</v>
+      </c>
+      <c r="L424">
+        <f>VLOOKUP(K424,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M424">
+        <v>7000</v>
+      </c>
+      <c r="N424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D425" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F425" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G425" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H425" t="s">
+        <v>3</v>
+      </c>
+      <c r="I425" t="s">
+        <v>68</v>
+      </c>
+      <c r="J425">
+        <v>1000</v>
+      </c>
+      <c r="K425" t="s">
+        <v>9</v>
+      </c>
+      <c r="L425">
+        <f>VLOOKUP(K425,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M425">
+        <v>1000</v>
+      </c>
+      <c r="N425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D426" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F426" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G426" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H426" t="s">
+        <v>3</v>
+      </c>
+      <c r="I426" t="s">
+        <v>4</v>
+      </c>
+      <c r="J426">
+        <v>272000</v>
+      </c>
+      <c r="K426" t="s">
+        <v>5</v>
+      </c>
+      <c r="L426">
+        <f>VLOOKUP(K426,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M426">
+        <v>272000</v>
+      </c>
+      <c r="N426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D427" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F427" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G427" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H427" t="s">
+        <v>3</v>
+      </c>
+      <c r="I427" t="s">
+        <v>4</v>
+      </c>
+      <c r="J427">
+        <v>82000</v>
+      </c>
+      <c r="K427" t="s">
+        <v>9</v>
+      </c>
+      <c r="L427">
+        <f>VLOOKUP(K427,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M427">
+        <v>82000</v>
+      </c>
+      <c r="N427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D428" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F428" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H428" t="s">
+        <v>3</v>
+      </c>
+      <c r="I428" t="s">
+        <v>4</v>
+      </c>
+      <c r="J428">
+        <v>94000</v>
+      </c>
+      <c r="K428" t="s">
+        <v>9</v>
+      </c>
+      <c r="L428">
+        <f>VLOOKUP(K428,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M428">
+        <v>94000</v>
+      </c>
+      <c r="N428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D429" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E429" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F429" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G429" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H429" t="s">
+        <v>3</v>
+      </c>
+      <c r="I429" t="s">
+        <v>4</v>
+      </c>
+      <c r="J429">
+        <v>93000</v>
+      </c>
+      <c r="K429" t="s">
+        <v>9</v>
+      </c>
+      <c r="L429">
+        <f>VLOOKUP(K429,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M429">
+        <v>93000</v>
+      </c>
+      <c r="N429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D430" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F430" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G430" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H430" t="s">
+        <v>3</v>
+      </c>
+      <c r="I430" t="s">
+        <v>4</v>
+      </c>
+      <c r="J430">
+        <v>35000</v>
+      </c>
+      <c r="K430" t="s">
+        <v>9</v>
+      </c>
+      <c r="L430">
+        <f>VLOOKUP(K430,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M430">
+        <v>35000</v>
+      </c>
+      <c r="N430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D431" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F431" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G431" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H431" t="s">
+        <v>3</v>
+      </c>
+      <c r="I431" t="s">
+        <v>4</v>
+      </c>
+      <c r="J431">
+        <v>140000</v>
+      </c>
+      <c r="K431" t="s">
+        <v>9</v>
+      </c>
+      <c r="L431">
+        <f>VLOOKUP(K431,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M431">
+        <v>140000</v>
+      </c>
+      <c r="N431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D432" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F432" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G432" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H432" t="s">
+        <v>3</v>
+      </c>
+      <c r="I432" t="s">
+        <v>4</v>
+      </c>
+      <c r="J432">
+        <v>179000</v>
+      </c>
+      <c r="K432" t="s">
+        <v>5</v>
+      </c>
+      <c r="L432">
+        <f>VLOOKUP(K432,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M432">
+        <v>179000</v>
+      </c>
+      <c r="N432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D433" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F433" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G433" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H433" t="s">
+        <v>3</v>
+      </c>
+      <c r="I433" t="s">
+        <v>4</v>
+      </c>
+      <c r="J433">
+        <v>103000</v>
+      </c>
+      <c r="K433" t="s">
+        <v>9</v>
+      </c>
+      <c r="L433">
+        <f>VLOOKUP(K433,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M433">
+        <v>103000</v>
+      </c>
+      <c r="N433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D434" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F434" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G434" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H434" t="s">
+        <v>3</v>
+      </c>
+      <c r="I434" t="s">
+        <v>4</v>
+      </c>
+      <c r="J434">
+        <v>176000</v>
+      </c>
+      <c r="K434" t="s">
+        <v>9</v>
+      </c>
+      <c r="L434">
+        <f>VLOOKUP(K434,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M434">
+        <v>176000</v>
+      </c>
+      <c r="N434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D435" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F435" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G435" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H435" t="s">
+        <v>3</v>
+      </c>
+      <c r="I435" t="s">
+        <v>4</v>
+      </c>
+      <c r="J435">
+        <v>130000</v>
+      </c>
+      <c r="K435" t="s">
+        <v>9</v>
+      </c>
+      <c r="L435">
+        <f>VLOOKUP(K435,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M435">
+        <v>130000</v>
+      </c>
+      <c r="N435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D436" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F436" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G436" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H436" t="s">
+        <v>3</v>
+      </c>
+      <c r="I436" t="s">
+        <v>68</v>
+      </c>
+      <c r="J436">
+        <v>4000</v>
+      </c>
+      <c r="K436" t="s">
+        <v>9</v>
+      </c>
+      <c r="L436">
+        <f>VLOOKUP(K436,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M436">
+        <v>4000</v>
+      </c>
+      <c r="N436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D437" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F437" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G437" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H437" t="s">
+        <v>3</v>
+      </c>
+      <c r="I437" t="s">
+        <v>4</v>
+      </c>
+      <c r="J437">
+        <v>38000</v>
+      </c>
+      <c r="K437" t="s">
+        <v>9</v>
+      </c>
+      <c r="L437">
+        <f>VLOOKUP(K437,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M437">
+        <v>38000</v>
+      </c>
+      <c r="N437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D438" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F438" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G438" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H438" t="s">
+        <v>3</v>
+      </c>
+      <c r="I438" t="s">
+        <v>4</v>
+      </c>
+      <c r="J438">
+        <v>43000</v>
+      </c>
+      <c r="K438" t="s">
+        <v>9</v>
+      </c>
+      <c r="L438">
+        <f>VLOOKUP(K438,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M438">
+        <v>43000</v>
+      </c>
+      <c r="N438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D439" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F439" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G439" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H439" t="s">
+        <v>3</v>
+      </c>
+      <c r="I439" t="s">
+        <v>4</v>
+      </c>
+      <c r="J439">
+        <v>62000</v>
+      </c>
+      <c r="K439" t="s">
+        <v>9</v>
+      </c>
+      <c r="L439">
+        <f>VLOOKUP(K439,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M439">
+        <v>62000</v>
+      </c>
+      <c r="N439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D440" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E440" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F440" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G440" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H440" t="s">
+        <v>3</v>
+      </c>
+      <c r="I440" t="s">
+        <v>4</v>
+      </c>
+      <c r="J440">
+        <v>17000</v>
+      </c>
+      <c r="K440" t="s">
+        <v>5</v>
+      </c>
+      <c r="L440">
+        <f>VLOOKUP(K440,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M440">
+        <v>17000</v>
+      </c>
+      <c r="N440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D441" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E441" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F441" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G441" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H441" t="s">
+        <v>3</v>
+      </c>
+      <c r="I441" t="s">
+        <v>4</v>
+      </c>
+      <c r="J441">
+        <v>244000</v>
+      </c>
+      <c r="K441" t="s">
+        <v>9</v>
+      </c>
+      <c r="L441">
+        <f>VLOOKUP(K441,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M441">
+        <v>244000</v>
+      </c>
+      <c r="N441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D442" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E442" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F442" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G442" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H442" t="s">
+        <v>3</v>
+      </c>
+      <c r="I442" t="s">
+        <v>4</v>
+      </c>
+      <c r="J442">
+        <v>143000</v>
+      </c>
+      <c r="K442" t="s">
+        <v>9</v>
+      </c>
+      <c r="L442">
+        <f>VLOOKUP(K442,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M442">
+        <v>143000</v>
+      </c>
+      <c r="N442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D443" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F443" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G443" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H443" t="s">
+        <v>3</v>
+      </c>
+      <c r="I443" t="s">
+        <v>4</v>
+      </c>
+      <c r="J443">
+        <v>75000</v>
+      </c>
+      <c r="K443" t="s">
+        <v>9</v>
+      </c>
+      <c r="L443">
+        <f>VLOOKUP(K443,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M443">
+        <v>75000</v>
+      </c>
+      <c r="N443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D444" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E444" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F444" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G444" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H444" t="s">
+        <v>3</v>
+      </c>
+      <c r="I444" t="s">
+        <v>4</v>
+      </c>
+      <c r="J444">
+        <v>45000</v>
+      </c>
+      <c r="K444" t="s">
+        <v>9</v>
+      </c>
+      <c r="L444">
+        <f>VLOOKUP(K444,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M444">
+        <v>45000</v>
+      </c>
+      <c r="N444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D445" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F445" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G445" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H445" t="s">
+        <v>3</v>
+      </c>
+      <c r="I445" t="s">
+        <v>4</v>
+      </c>
+      <c r="J445">
+        <v>58000</v>
+      </c>
+      <c r="K445" t="s">
+        <v>5</v>
+      </c>
+      <c r="L445">
+        <f>VLOOKUP(K445,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M445">
+        <v>58000</v>
+      </c>
+      <c r="N445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D446" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F446" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G446" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H446" t="s">
+        <v>3</v>
+      </c>
+      <c r="I446" t="s">
+        <v>4</v>
+      </c>
+      <c r="J446">
+        <v>77000</v>
+      </c>
+      <c r="K446" t="s">
+        <v>9</v>
+      </c>
+      <c r="L446">
+        <f>VLOOKUP(K446,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M446">
+        <v>77000</v>
+      </c>
+      <c r="N446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D447" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E447" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F447" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G447" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H447" t="s">
+        <v>3</v>
+      </c>
+      <c r="I447" t="s">
+        <v>4</v>
+      </c>
+      <c r="J447">
+        <v>82000</v>
+      </c>
+      <c r="K447" t="s">
+        <v>9</v>
+      </c>
+      <c r="L447">
+        <f>VLOOKUP(K447,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M447">
+        <v>82000</v>
+      </c>
+      <c r="N447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D448" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E448" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F448" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G448" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H448" t="s">
+        <v>3</v>
+      </c>
+      <c r="I448" t="s">
+        <v>4</v>
+      </c>
+      <c r="J448">
+        <v>102000</v>
+      </c>
+      <c r="K448" t="s">
+        <v>9</v>
+      </c>
+      <c r="L448">
+        <f>VLOOKUP(K448,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M448">
+        <v>102000</v>
+      </c>
+      <c r="N448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D449" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E449" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F449" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G449" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H449" t="s">
+        <v>3</v>
+      </c>
+      <c r="I449" t="s">
+        <v>4</v>
+      </c>
+      <c r="J449">
+        <v>20000</v>
+      </c>
+      <c r="K449" t="s">
+        <v>9</v>
+      </c>
+      <c r="L449">
+        <f>VLOOKUP(K449,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M449">
+        <v>20000</v>
+      </c>
+      <c r="N449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D450" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E450" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F450" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G450" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H450" t="s">
+        <v>3</v>
+      </c>
+      <c r="I450" t="s">
+        <v>4</v>
+      </c>
+      <c r="J450">
+        <v>73000</v>
+      </c>
+      <c r="K450" t="s">
+        <v>9</v>
+      </c>
+      <c r="L450">
+        <f>VLOOKUP(K450,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M450">
+        <v>73000</v>
+      </c>
+      <c r="N450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D451" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E451" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F451" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G451" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H451" t="s">
+        <v>3</v>
+      </c>
+      <c r="I451" t="s">
+        <v>68</v>
+      </c>
+      <c r="J451">
+        <v>10000</v>
+      </c>
+      <c r="K451" t="s">
+        <v>9</v>
+      </c>
+      <c r="L451">
+        <f>VLOOKUP(K451,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M451">
+        <v>10000</v>
+      </c>
+      <c r="N451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D452" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F452" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G452" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H452" t="s">
+        <v>3</v>
+      </c>
+      <c r="I452" t="s">
+        <v>4</v>
+      </c>
+      <c r="J452">
+        <v>38000</v>
+      </c>
+      <c r="K452" t="s">
+        <v>9</v>
+      </c>
+      <c r="L452">
+        <f>VLOOKUP(K452,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M452">
+        <v>38000</v>
+      </c>
+      <c r="N452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D453" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E453" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F453" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G453" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H453" t="s">
+        <v>3</v>
+      </c>
+      <c r="I453" t="s">
+        <v>4</v>
+      </c>
+      <c r="J453">
+        <v>10000</v>
+      </c>
+      <c r="K453" t="s">
+        <v>9</v>
+      </c>
+      <c r="L453">
+        <f>VLOOKUP(K453,Sheet2!$J$5:$L$17,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M453">
+        <v>10000</v>
+      </c>
+      <c r="N453">
         <v>0</v>
       </c>
     </row>
